--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -565,7 +565,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543087663617196816', 'createTime': 1756261972, 'createTimeISO': '2025-08-27T02:32:52.000Z', 'text': 'el único kefir de excelente calidad,es el q preparas en tu casa,con los búlgaros... artesanal', 'diggCount': 122, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 23, 'uid': '6861428548684579845', 'uniqueId': 'yukis_08', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/451e95b79b50a0380e909b70c9e55441~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=acbc9294&amp;x-expires=1758902400&amp;x-signature=eJSohkQsMdA0NMcXaRA1oyr5CP8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543087663617196816', 'createTime': 1756261972, 'createTimeISO': '2025-08-27T02:32:52.000Z', 'text': 'el único kefir de excelente calidad,es el q preparas en tu casa,con los búlgaros... artesanal', 'diggCount': 122, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 23, 'uid': '6861428548684579845', 'uniqueId': 'yukis_08', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/451e95b79b50a0380e909b70c9e55441~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e55d1808&amp;x-expires=1758902400&amp;x-signature=1Qc043YZA6deOUoXogeMNkvD3tc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -591,25 +591,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ya alpina saco kefir, y estará repleto de dulce y conservantes como es resto de sus productos.</t>
+          <t>El Kefir,de DEJAMU,no tiene azúcar, es super bueno.</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45899.01935185185</v>
+        <v>45897.70270833333</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>00:27:52</t>
+          <t>16:51:54</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544168726359311112', 'createTime': 1756513672, 'createTimeISO': '2025-08-30T00:27:52.000Z', 'text': 'ya alpina saco kefir, y estará repleto de dulce y conservantes como es resto de sus productos.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7296286177090241541', 'uniqueId': 'ldayure', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b688a0befd1fa4a4e3d036d54f67b721~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a3ce7b&amp;x-expires=1758902400&amp;x-signature=LVYbeThRjFO63a1HLCktLTyB014%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543680161683030791', 'createTime': 1756399914, 'createTimeISO': '2025-08-28T16:51:54.000Z', 'text': 'El Kefir,de DEJAMU,no tiene azúcar, es super bueno.', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7457800135080625157', 'uniqueId': 'patriciaparra375', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7949479db07da94e7d3dbde46c93702e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=669d2ac7&amp;x-expires=1758902400&amp;x-signature=Y7BSCy%2FeCt0WQWjqCjEe16XoA04%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -703,25 +703,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>El Kefir,de DEJAMU,no tiene azúcar, es super bueno.</t>
+          <t>yo lo hago en casa y es mejor</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45897.70270833333</v>
+        <v>45895.65761574074</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>16:51:54</t>
+          <t>15:46:58</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543680161683030791', 'createTime': 1756399914, 'createTimeISO': '2025-08-28T16:51:54.000Z', 'text': 'El Kefir,de DEJAMU,no tiene azúcar, es super bueno.', 'diggCount': 14, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 2, 'uid': '7457800135080625157', 'uniqueId': 'patriciaparra375', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7949479db07da94e7d3dbde46c93702e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=669d2ac7&amp;x-expires=1758902400&amp;x-signature=Y7BSCy%2FeCt0WQWjqCjEe16XoA04%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542921265771610887', 'createTime': 1756223218, 'createTimeISO': '2025-08-26T15:46:58.000Z', 'text': 'yo lo hago en casa y es mejor', 'diggCount': 54, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 17, 'uid': '6986827753996567557', 'uniqueId': 'luisvicentesaboga', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332601094142918661~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb05ce0e&amp;x-expires=1758902400&amp;x-signature=j3V4focCBy5O83ltPNk8HPbX%2F0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -759,22 +759,22 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Y si es de la industria, desconfíe</t>
+          <t>ya alpina saco kefir, y estará repleto de dulce y conservantes como es resto de sus productos.</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45897.74436342593</v>
+        <v>45899.01935185185</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17:51:53</t>
+          <t>00:27:52</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543695614300095250', 'createTime': 1756403513, 'createTimeISO': '2025-08-28T17:51:53.000Z', 'text': 'Y si es de la industria, desconfíe', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7147492296120157189', 'uniqueId': 'carlitos.vargas.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/02bbe8d0d4e3e08d0fd83cf6cf505411~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e80a7e60&amp;x-expires=1758902400&amp;x-signature=%2FHb59srN%2B2EbaUVGA4pDu3H68nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544168726359311112', 'createTime': 1756513672, 'createTimeISO': '2025-08-30T00:27:52.000Z', 'text': 'ya alpina saco kefir, y estará repleto de dulce y conservantes como es resto de sus productos.', 'diggCount': 10, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7296286177090241541', 'uniqueId': 'ldayure', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/b688a0befd1fa4a4e3d036d54f67b721~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=69a3ce7b&amp;x-expires=1758902400&amp;x-signature=LVYbeThRjFO63a1HLCktLTyB014%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -815,25 +815,25 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>si claro, el frutiño tiene todas las vitaminas, de pronto es mejor que el bonice</t>
+          <t>El único kefir es el casero con búlgaros ese ya viene procesado .</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45895.6006712963</v>
+        <v>45899.13122685185</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14:24:58</t>
+          <t>03:08:58</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542900129889157896', 'createTime': 1756218298, 'createTimeISO': '2025-08-26T14:24:58.000Z', 'text': 'si claro, el frutiño tiene todas las vitaminas, de pronto es mejor que el bonice', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7107284198607979525', 'uniqueId': 'jairogilmusic', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/23c57c3503cb8f1a7e03e3ee7cb89734~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e52d38a&amp;x-expires=1758902400&amp;x-signature=NXdVfNRFMnQSTkFSQsmK7h7KOKE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544210271607669511', 'createTime': 1756523338, 'createTimeISO': '2025-08-30T03:08:58.000Z', 'text': 'El único kefir es el casero con búlgaros ese ya viene procesado .', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7117598314933912581', 'uniqueId': 'virgenes.aleli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae79eac7b9016c84d68459df78f9a2c9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f9c710d&amp;x-expires=1758902400&amp;x-signature=iYnH2AYAXqHeTlxsvGBJ1M9GZRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -871,22 +871,22 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cualquier “alimento” industrializado es M, nada reemplaza a aquello que produce la naturaleza</t>
+          <t>Y si es de la industria, desconfíe</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45895.6369212963</v>
+        <v>45897.74436342593</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15:17:10</t>
+          <t>17:51:53</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542913591536829191', 'createTime': 1756221430, 'createTimeISO': '2025-08-26T15:17:10.000Z', 'text': 'Cualquier “alimento” industrializado es M, nada reemplaza a aquello que produce la naturaleza', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047673772853658629', 'uniqueId': 'luisjgarciabogado', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/361eba9132a1ba98e1fee50e0c97a4e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df85813e&amp;x-expires=1758902400&amp;x-signature=sg%2FBiA8LqKcJp65%2FoxY2w1qmo5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543695614300095250', 'createTime': 1756403513, 'createTimeISO': '2025-08-28T17:51:53.000Z', 'text': 'Y si es de la industria, desconfíe', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7147492296120157189', 'uniqueId': 'carlitos.vargas.20', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/02bbe8d0d4e3e08d0fd83cf6cf505411~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e80a7e60&amp;x-expires=1758902400&amp;x-signature=%2FHb59srN%2B2EbaUVGA4pDu3H68nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>yo también preparo mi propio kefir y es delicioso</t>
+          <t>El Kefir tiene entre 32 y 36 cepas bacterianas. Este tiene apenas 14 lo que indica que es más químico que probiótico.</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45897.88238425926</v>
+        <v>45896.25532407407</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21:10:38</t>
+          <t>06:07:40</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543746778824213266', 'createTime': 1756415438, 'createTimeISO': '2025-08-28T21:10:38.000Z', 'text': 'yo también preparo mi propio kefir y es delicioso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7102088032476529669', 'uniqueId': 'maripos723', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/165f32a6bf787a0792d4b020833b6b22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6f64ed37&amp;x-expires=1758902400&amp;x-signature=yDavNxYULiMzlnqN%2FEFjjJ%2FzvKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543143052530696967', 'createTime': 1756274860, 'createTimeISO': '2025-08-27T06:07:40.000Z', 'text': 'El Kefir tiene entre 32 y 36 cepas bacterianas. Este tiene apenas 14 lo que indica que es más químico que probiótico.', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6787035239015138310', 'uniqueId': 'rollandsoul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba309b071e69b250f78fd280664c5e8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aac59d6c&amp;x-expires=1758902400&amp;x-signature=CLSAN8jl1vkV3fPRrxvL3NrMqcc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -983,22 +983,22 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>El Kefir tiene entre 32 y 36 cepas bacterianas. Este tiene apenas 14 lo que indica que es más químico que probiótico.</t>
+          <t>y que tal el de d1</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45896.25532407407</v>
+        <v>45898.95834490741</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>06:07:40</t>
+          <t>23:00:01</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543143052530696967', 'createTime': 1756274860, 'createTimeISO': '2025-08-27T06:07:40.000Z', 'text': 'El Kefir tiene entre 32 y 36 cepas bacterianas. Este tiene apenas 14 lo que indica que es más químico que probiótico.', 'diggCount': 8, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6787035239015138310', 'uniqueId': 'rollandsoul', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ba309b071e69b250f78fd280664c5e8b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aac59d6c&amp;x-expires=1758902400&amp;x-signature=CLSAN8jl1vkV3fPRrxvL3NrMqcc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544146041878594311', 'createTime': 1756508401, 'createTimeISO': '2025-08-29T23:00:01.000Z', 'text': 'y que tal el de d1', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808225638916293637', 'uniqueId': 'williamverano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327433016342413317~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=682f4981&amp;x-expires=1758902400&amp;x-signature=5GFJ2y%2Fs24dXRQZy211aHCMMiR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1039,25 +1039,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>yo lo hago en casa y es mejor</t>
+          <t>si claro, el frutiño tiene todas las vitaminas, de pronto es mejor que el bonice</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45895.65761574074</v>
+        <v>45895.6006712963</v>
       </c>
       <c r="H11" s="3" t="n">
         <v>45895</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15:46:58</t>
+          <t>14:24:58</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542921265771610887', 'createTime': 1756223218, 'createTimeISO': '2025-08-26T15:46:58.000Z', 'text': 'yo lo hago en casa y es mejor', 'diggCount': 54, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 17, 'uid': '6986827753996567557', 'uniqueId': 'luisvicentesaboga', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7332601094142918661~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=cb05ce0e&amp;x-expires=1758902400&amp;x-signature=j3V4focCBy5O83ltPNk8HPbX%2F0c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542900129889157896', 'createTime': 1756218298, 'createTimeISO': '2025-08-26T14:24:58.000Z', 'text': 'si claro, el frutiño tiene todas las vitaminas, de pronto es mejor que el bonice', 'diggCount': 23, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '7107284198607979525', 'uniqueId': 'jairogilmusic', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/23c57c3503cb8f1a7e03e3ee7cb89734~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8e52d38a&amp;x-expires=1758902400&amp;x-signature=NXdVfNRFMnQSTkFSQsmK7h7KOKE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1095,22 +1095,22 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Buenas tardes, dónde se consigue esa botellita de Kefir. Quedó atenta</t>
+          <t>kefir es muy saludable pero Natura, lo preparo en casa y me ayuda mucho</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45895.96865740741</v>
+        <v>45900.65361111111</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>45895</v>
+        <v>45900</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>23:14:52</t>
+          <t>15:41:12</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543036637300654855', 'createTime': 1756250092, 'createTimeISO': '2025-08-26T23:14:52.000Z', 'text': 'Buenas tardes, dónde se consigue esa botellita de Kefir. Quedó atenta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7277013856429392902', 'uniqueId': 'nanis3061', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01a95f93ce675e6b62aee05ed6bb3cac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95ca75c8&amp;x-expires=1758902400&amp;x-signature=0n4jmsJVjq%2BDqg1xiHMEtNyUje0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544775191018406664', 'createTime': 1756654872, 'createTimeISO': '2025-08-31T15:41:12.000Z', 'text': 'kefir es muy saludable pero Natura, lo preparo en casa y me ayuda mucho', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7056561496675369989', 'uniqueId': 'rosarodriguez8243', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322333190604423173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38dced1d&amp;x-expires=1758902400&amp;x-signature=x2O2dgbvoIgOxKLbqvCo5YYNSMQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1151,22 +1151,22 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>El único kefir es el casero con búlgaros ese ya viene procesado .</t>
+          <t>yo también preparo mi propio kefir y es delicioso</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45899.13122685185</v>
+        <v>45897.88238425926</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>03:08:58</t>
+          <t>21:10:38</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544210271607669511', 'createTime': 1756523338, 'createTimeISO': '2025-08-30T03:08:58.000Z', 'text': 'El único kefir es el casero con búlgaros ese ya viene procesado .', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7117598314933912581', 'uniqueId': 'virgenes.aleli', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ae79eac7b9016c84d68459df78f9a2c9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1f9c710d&amp;x-expires=1758902400&amp;x-signature=iYnH2AYAXqHeTlxsvGBJ1M9GZRQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543746778824213266', 'createTime': 1756415438, 'createTimeISO': '2025-08-28T21:10:38.000Z', 'text': 'yo también preparo mi propio kefir y es delicioso', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7102088032476529669', 'uniqueId': 'maripos723', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/165f32a6bf787a0792d4b020833b6b22~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6f64ed37&amp;x-expires=1758902400&amp;x-signature=yDavNxYULiMzlnqN%2FEFjjJ%2FzvKU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1207,22 +1207,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>y que tal el de d1</t>
+          <t>El kefir no se debe almacenar en botellas de plástico</t>
         </is>
       </c>
       <c r="G14" s="2" t="n">
-        <v>45898.95834490741</v>
+        <v>45896.0905324074</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>23:00:01</t>
+          <t>02:10:22</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544146041878594311', 'createTime': 1756508401, 'createTimeISO': '2025-08-29T23:00:01.000Z', 'text': 'y que tal el de d1', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808225638916293637', 'uniqueId': 'williamverano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327433016342413317~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=682f4981&amp;x-expires=1758902400&amp;x-signature=5GFJ2y%2Fs24dXRQZy211aHCMMiR4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543081870197424904', 'createTime': 1756260622, 'createTimeISO': '2025-08-27T02:10:22.000Z', 'text': 'El kefir no se debe almacenar en botellas de plástico', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7274796042833413125', 'uniqueId': 'johan.garcia2117', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/723f33aab607896ae597c306d3e6e7c5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26629630&amp;x-expires=1758902400&amp;x-signature=20X5EQ9NeTZCjfAeT7I9HCosjLg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1263,25 +1263,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>una pregunta las personas que les dió cáncer lo pueden tomar kefir gracias</t>
+          <t>Buenas tardes, dónde se consigue esa botellita de Kefir. Quedó atenta</t>
         </is>
       </c>
       <c r="G15" s="2" t="n">
-        <v>45895.71350694444</v>
+        <v>45895.96865740741</v>
       </c>
       <c r="H15" s="3" t="n">
         <v>45895</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>17:07:27</t>
+          <t>23:14:52</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542942007338009351', 'createTime': 1756228047, 'createTimeISO': '2025-08-26T17:07:27.000Z', 'text': 'una pregunta las personas que les dió cáncer lo pueden tomar kefir gracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7368189855706137605', 'uniqueId': 'maria.moreno1957', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5b6f7152b1315878e648933084827d5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4052ef32&amp;x-expires=1758902400&amp;x-signature=mga8UXgO9JnfwsYdVU4%2FPB3X7nY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543036637300654855', 'createTime': 1756250092, 'createTimeISO': '2025-08-26T23:14:52.000Z', 'text': 'Buenas tardes, dónde se consigue esa botellita de Kefir. Quedó atenta', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7277013856429392902', 'uniqueId': 'nanis3061', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/01a95f93ce675e6b62aee05ed6bb3cac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95ca75c8&amp;x-expires=1758902400&amp;x-signature=0n4jmsJVjq%2BDqg1xiHMEtNyUje0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1319,18 +1319,18 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>kefir es muy saludable pero Natura, lo preparo en casa y me ayuda mucho</t>
+          <t>un producto industrial no es un alimento...</t>
         </is>
       </c>
       <c r="G16" s="2" t="n">
-        <v>45900.65361111111</v>
+        <v>45900.13871527778</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15:41:12</t>
+          <t>03:19:45</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544775191018406664', 'createTime': 1756654872, 'createTimeISO': '2025-08-31T15:41:12.000Z', 'text': 'kefir es muy saludable pero Natura, lo preparo en casa y me ayuda mucho', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7056561496675369989', 'uniqueId': 'rosarodriguez8243', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7322333190604423173~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=38dced1d&amp;x-expires=1758902400&amp;x-signature=x2O2dgbvoIgOxKLbqvCo5YYNSMQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544584110452638482', 'createTime': 1756610385, 'createTimeISO': '2025-08-31T03:19:45.000Z', 'text': 'un producto industrial no es un alimento...', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7310411123361694726', 'uniqueId': 'lagosterapeuta', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f9a594f8bcd602956576aafbf3f8779d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=acff1e15&amp;x-expires=1758902400&amp;x-signature=ErY8wmy3bxdKRTsvcsBK2DJtu5w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1375,22 +1375,22 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>El kefir no se debe almacenar en botellas de plástico</t>
+          <t>Kegir es excelente pero es mejor el dejamu que no contiene azucar</t>
         </is>
       </c>
       <c r="G17" s="2" t="n">
-        <v>45896.0905324074</v>
+        <v>45895.80296296296</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>02:10:22</t>
+          <t>19:16:16</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543081870197424904', 'createTime': 1756260622, 'createTimeISO': '2025-08-27T02:10:22.000Z', 'text': 'El kefir no se debe almacenar en botellas de plástico', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7274796042833413125', 'uniqueId': 'johan.garcia2117', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/723f33aab607896ae597c306d3e6e7c5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=26629630&amp;x-expires=1758902400&amp;x-signature=20X5EQ9NeTZCjfAeT7I9HCosjLg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542975150851195669', 'createTime': 1756235776, 'createTimeISO': '2025-08-26T19:16:16.000Z', 'text': 'Kegir es excelente pero es mejor el dejamu que no contiene azucar', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7168518848466060294', 'uniqueId': 'lydateresasantoyo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7200081451627675654~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68905e9e&amp;x-expires=1758902400&amp;x-signature=0v2reJgsc2Fbb9traakH3b35f%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1431,25 +1431,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>un producto industrial no es un alimento...</t>
+          <t>es muy muy bueno esto me ayudo a recuperarme después del tratamiento del Helicobacter pylori ,gracias a Dios estoy sana</t>
         </is>
       </c>
       <c r="G18" s="2" t="n">
-        <v>45900.13871527778</v>
+        <v>45895.89240740741</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>45900</v>
+        <v>45895</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>03:19:45</t>
+          <t>21:25:04</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544584110452638482', 'createTime': 1756610385, 'createTimeISO': '2025-08-31T03:19:45.000Z', 'text': 'un producto industrial no es un alimento...', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7310411123361694726', 'uniqueId': 'lagosterapeuta', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f9a594f8bcd602956576aafbf3f8779d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=acff1e15&amp;x-expires=1758902400&amp;x-signature=ErY8wmy3bxdKRTsvcsBK2DJtu5w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543008291770942209', 'createTime': 1756243504, 'createTimeISO': '2025-08-26T21:25:04.000Z', 'text': 'es muy muy bueno esto me ayudo a recuperarme después del tratamiento del Helicobacter pylori ,gracias a Dios estoy sana', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '6918447465033270278', 'uniqueId': 'lilyramrod', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/012427409a4a87b76eef6cadf84e9c3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b3ff9f81&amp;x-expires=1758902400&amp;x-signature=4uNzaNfUC4WtzjfMn9Ma9gEjsRo%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1487,25 +1487,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kegir es excelente pero es mejor el dejamu que no contiene azucar</t>
+          <t>una pregunta las personas que les dió cáncer lo pueden tomar kefir gracias</t>
         </is>
       </c>
       <c r="G19" s="2" t="n">
-        <v>45895.80296296296</v>
+        <v>45895.71350694444</v>
       </c>
       <c r="H19" s="3" t="n">
         <v>45895</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>19:16:16</t>
+          <t>17:07:27</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542975150851195669', 'createTime': 1756235776, 'createTimeISO': '2025-08-26T19:16:16.000Z', 'text': 'Kegir es excelente pero es mejor el dejamu que no contiene azucar', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7168518848466060294', 'uniqueId': 'lydateresasantoyo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7200081451627675654~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68905e9e&amp;x-expires=1758902400&amp;x-signature=0v2reJgsc2Fbb9traakH3b35f%2BY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542942007338009351', 'createTime': 1756228047, 'createTimeISO': '2025-08-26T17:07:27.000Z', 'text': 'una pregunta las personas que les dió cáncer lo pueden tomar kefir gracias', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '7368189855706137605', 'uniqueId': 'maria.moreno1957', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b5b6f7152b1315878e648933084827d5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4052ef32&amp;x-expires=1758902400&amp;x-signature=mga8UXgO9JnfwsYdVU4%2FPB3X7nY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1543,25 +1543,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>es muy muy bueno esto me ayudo a recuperarme después del tratamiento del Helicobacter pylori ,gracias a Dios estoy sana</t>
+          <t>Cualquier “alimento” industrializado es M, nada reemplaza a aquello que produce la naturaleza</t>
         </is>
       </c>
       <c r="G20" s="2" t="n">
-        <v>45895.89240740741</v>
+        <v>45895.6369212963</v>
       </c>
       <c r="H20" s="3" t="n">
         <v>45895</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>21:25:04</t>
+          <t>15:17:10</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543008291770942209', 'createTime': 1756243504, 'createTimeISO': '2025-08-26T21:25:04.000Z', 'text': 'es muy muy bueno esto me ayudo a recuperarme después del tratamiento del Helicobacter pylori ,gracias a Dios estoy sana', 'diggCount': 6, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 7, 'uid': '6918447465033270278', 'uniqueId': 'lilyramrod', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/012427409a4a87b76eef6cadf84e9c3f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f66f4e8c&amp;x-expires=1758902400&amp;x-signature=e0Q9AuEj%2BGVDgsx10whCgDehSpw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542913591536829191', 'createTime': 1756221430, 'createTimeISO': '2025-08-26T15:17:10.000Z', 'text': 'Cualquier “alimento” industrializado es M, nada reemplaza a aquello que produce la naturaleza', 'diggCount': 9, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7047673772853658629', 'uniqueId': 'luisjgarciabogado', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/361eba9132a1ba98e1fee50e0c97a4e2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=df85813e&amp;x-expires=1758902400&amp;x-signature=sg%2FBiA8LqKcJp65%2FoxY2w1qmo5k%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543836075526914834', 'createTime': 1756436219, 'createTimeISO': '2025-08-29T02:56:59.000Z', 'text': 'Si pero si tiene solo 14 sepas ya esta tratado', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964234448910468097', 'uniqueId': 'jamessuarez155', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323742512063971330~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80adc4e9&amp;x-expires=1758902400&amp;x-signature=WQwU7nqG96kjGOW63EJHR1C%2BWH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543836075526914834', 'createTime': 1756436219, 'createTimeISO': '2025-08-29T02:56:59.000Z', 'text': 'Si pero si tiene solo 14 sepas ya esta tratado', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964234448910468097', 'uniqueId': 'jamessuarez155', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323742512063971330~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=039ba26c&amp;x-expires=1758902400&amp;x-signature=cady2XdSV1QXKp0BGXB%2BMSpAZ38%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544044147575145234', 'createTime': 1756484663, 'createTimeISO': '2025-08-29T16:24:23.000Z', 'text': 'aaa q pesar del doc q ya está haciendo es publicidad', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608304814018641926', 'uniqueId': 'dnm0124', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1661a56083102c9deb7a7fbc30cd2a1e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=34088435&amp;x-expires=1758902400&amp;x-signature=FcsCVTwNnluTLFL6J0hdoE1phWY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544044147575145234', 'createTime': 1756484663, 'createTimeISO': '2025-08-29T16:24:23.000Z', 'text': 'aaa q pesar del doc q ya está haciendo es publicidad', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6608304814018641926', 'uniqueId': 'dnm0124', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1661a56083102c9deb7a7fbc30cd2a1e~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=179c47ce&amp;x-expires=1758902400&amp;x-signature=vHU2gcP6kHZ2oGuXyMWe3hcnP7c%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543754722684109586', 'createTime': 1756417278, 'createTimeISO': '2025-08-28T21:41:18.000Z', 'text': 'Ahora contratan un influencer y le ponen sudadera de nutricionista y tenemos que creerles.', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7485561177750832133', 'uniqueId': 'vxxnxzz', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/20019d8950963380b4bb07bf90c61374~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5a76774&amp;x-expires=1758902400&amp;x-signature=c2kE2GdSGdYa7oiVJ3gkDDgCrU8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543754722684109586', 'createTime': 1756417278, 'createTimeISO': '2025-08-28T21:41:18.000Z', 'text': 'Ahora contratan un influencer y le ponen sudadera de nutricionista y tenemos que creerles.', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 5, 'uid': '7485561177750832133', 'uniqueId': 'vxxnxzz', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/20019d8950963380b4bb07bf90c61374~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4a3e7c09&amp;x-expires=1758902400&amp;x-signature=9aqk9zzSNqoEgIENfJAKukeTmIM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2215,22 +2215,22 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>empezó la guerra del kefir</t>
+          <t>como lo hago en casa gracias</t>
         </is>
       </c>
       <c r="G32" s="2" t="n">
-        <v>45895.64940972222</v>
+        <v>45897.11953703704</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>15:35:09</t>
+          <t>02:52:08</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542918213299487495', 'createTime': 1756222509, 'createTimeISO': '2025-08-26T15:35:09.000Z', 'text': 'empezó la guerra del kefir', 'diggCount': 4, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6990191744797590533', 'uniqueId': 'psiqui1987', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f37fd323c7fd9fec45667bac56370b54~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac92b712&amp;x-expires=1758902400&amp;x-signature=j1JO9Ki%2FyMjRuasQpIckudG2dCY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543463736092705554', 'createTime': 1756349528, 'createTimeISO': '2025-08-28T02:52:08.000Z', 'text': 'como lo hago en casa gracias', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7292398885509923846', 'uniqueId': 'maria.elena.siach', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3169bba1bb293a749e24a87d38649134~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4c2c4b2&amp;x-expires=1758902400&amp;x-signature=ulkfUXj6Tu8YXnaV%2F2mhHqoyXEc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2271,25 +2271,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Yo amo el kefir pero me toca tomarlo en la noche porque tengo que tomar hierro pero sería el hit en ayunas es delicioso</t>
+          <t>Y quien es el para dar ese juicio de valor? ponerse bata no lo hace nutricionista...</t>
         </is>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45900.28616898148</v>
+        <v>45897.03737268518</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>45900</v>
+        <v>45897</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>06:52:05</t>
+          <t>00:53:49</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544638830532576016', 'createTime': 1756623125, 'createTimeISO': '2025-08-31T06:52:05.000Z', 'text': 'Yo amo el kefir pero me toca tomarlo en la noche porque tengo que tomar hierro pero sería el hit en ayunas es delicioso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6763628686895662085', 'uniqueId': 'ruthcastiblanco2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/aa85829f133d1e581238f0ae84018a68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca9605b2&amp;x-expires=1758902400&amp;x-signature=OwIHb252MxqpfSOI7I9JEPhhFAk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543433251365683976', 'createTime': 1756342429, 'createTimeISO': '2025-08-28T00:53:49.000Z', 'text': 'Y quien es el para dar ese juicio de valor? ponerse bata no lo hace nutricionista...', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807116470716384261', 'uniqueId': 'commissarfuklaw', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9bdaaa9cdcb3909d3d117b1d48a3e3fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc065d24&amp;x-expires=1758902400&amp;x-signature=s8FOX%2FOC5v88M%2BQrldx2p%2Bdcq8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2327,527 +2327,527 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Es mejor el de agua</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45895.28712962963</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>06:53:28</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542783762138022677', 'createTime': 1756191208, 'createTimeISO': '2025-08-26T06:53:28.000Z', 'text': 'Es mejor el de agua', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6777530734926251014', 'uniqueId': 'caroldriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/be947dbde27fc93955c21f71d27e3935~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b7497f4&amp;x-expires=1758902400&amp;x-signature=83uWrocEKdSr3EwAnGseRKYD5Nc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alguna persona que Venda los Bulgaros X favor los Necesito Urgente vivo en Bogotá</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45897.26074074074</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>06:15:28</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543516143929508626', 'createTime': 1756361728, 'createTimeISO': '2025-08-28T06:15:28.000Z', 'text': 'Alguna persona que Venda los Bulgaros X favor los Necesito Urgente vivo en Bogotá', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 12, 'uid': '6983134730574283781', 'uniqueId': 'natha30.5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/04fa043773c88d13b397da4803a10a1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1aeaeca0&amp;x-expires=1758902400&amp;x-signature=cDYL5L0h6YDrU4XfrHt7tH7C5AA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Consuman keffir de sketos es el mejor 🥰</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45896.39479166667</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45896</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>09:28:30</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543194821331223304', 'createTime': 1756286910, 'createTimeISO': '2025-08-27T09:28:30.000Z', 'text': 'Consuman keffir de sketos es el mejor 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603341795555786757', 'uniqueId': 'julianquintero91', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/327622f15b2768987b1f7e7033c6946d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=99996210&amp;x-expires=1758902400&amp;x-signature=f1MBB6L3DtZG0ythMdTriEvBZo4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Para la gastritis es bueno?</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45897.15864583333</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45897</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>03:48:27</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543478247075103506', 'createTime': 1756352907, 'createTimeISO': '2025-08-28T03:48:27.000Z', 'text': 'Para la gastritis es bueno?', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6993458811496662021', 'uniqueId': 'crisdel950', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/03bcd772434577293756faebd745a1c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=647e0e10&amp;x-expires=1758902400&amp;x-signature=cx%2BlObbz7Bf8d5hlWsTovriEb10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>no sabia que alpina lo vendia</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45895.77103009259</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45895</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18:30:17</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542963335382450965', 'createTime': 1756233017, 'createTimeISO': '2025-08-26T18:30:17.000Z', 'text': 'no sabia que alpina lo vendia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167561264892511238', 'uniqueId': 'alejandroarenas2692', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/961701e9db6cd958912342e91eec6417~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0e0ef5b&amp;x-expires=1758902400&amp;x-signature=WbglvgdibkpVqpfZee7%2By5pKoYQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>yo me tomé uno lo compré Enel supermercado D1 pequeño y me lo tomé todo casi me da algo me cayó mal 😏😭</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>45899.8830787037</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>21:11:38</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>13</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544489165204226833', 'createTime': 1756588298, 'createTimeISO': '2025-08-30T21:11:38.000Z', 'text': 'yo me tomé uno lo compré Enel supermercado D1 pequeño y me lo tomé todo casi me da algo me cayó mal 😏😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 13, 'uid': '6917683951453799429', 'uniqueId': 'katerineferrer4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/09ba3b58bee6907b0eab8e339e3d05b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf315d87&amp;x-expires=1758902400&amp;x-signature=M7qD%2Fx9JGCgPsTBWD4peQu1LANw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Yo tengo kefir original y le regalo la cepa a los amigos y conocidos. Es fácil de hacer y es muy económico</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>45899.71730324074</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>17:12:55</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544427731761791761', 'createTime': 1756573975, 'createTimeISO': '2025-08-30T17:12:55.000Z', 'text': 'Yo tengo kefir original y le regalo la cepa a los amigos y conocidos. Es fácil de hacer y es muy económico', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315047279881536517', 'uniqueId': 'johnnyalexanderdi4', 'avatarThumbnail': 'https://lh3.googleusercontent.com/a/ACg8ocLc3H73OabgcKyh1yrWwPmQjEKJtZchPBtQc9MkbolJGxyLJFmU=s300-c', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>🥰Por fin Alpina nos hizo Kefir🥰🥰🥰</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>45899.69542824074</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45899</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16:41:25</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544419634150605575', 'createTime': 1756572085, 'createTimeISO': '2025-08-30T16:41:25.000Z', 'text': '🥰Por fin Alpina nos hizo Kefir🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7176083204275946501', 'uniqueId': 'patricia46321', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f785007880f9000c98b264d2c83f40a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ff8d4fd&amp;x-expires=1758902400&amp;x-signature=vqqZGeeLQlRbNEQnQDHSIYHU7Ms%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>el mejor kefir que hay es el suero costeño.</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>45900.08541666667</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45900</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>02:03:00</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544564335839789831', 'createTime': 1756605780, 'createTimeISO': '2025-08-31T02:03:00.000Z', 'text': 'el mejor kefir que hay es el suero costeño.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6946717632360449030', 'uniqueId': 'yovana15_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324065586156634117~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f31e4c6a&amp;x-expires=1758902400&amp;x-signature=iWd8%2B6CuPqtfMUJr905kUvfZCp4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>a qué sabe? jamás he probado el kefir.
 pregunto: Sabe a kumis ?</t>
         </is>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G43" s="2" t="n">
         <v>45899.0271412037</v>
       </c>
-      <c r="H34" s="3" t="n">
+      <c r="H43" s="3" t="n">
         <v>45899</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>00:39:05</t>
         </is>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544171587986932487', 'createTime': 1756514345, 'createTimeISO': '2025-08-30T00:39:05.000Z', 'text': 'a qué sabe? jamás he probado el kefir.\npregunto: Sabe a kumis ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322583010271904774', 'uniqueId': 'cr27916', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ebbe10a2ad197593da8936048757ae17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa8959c6&amp;x-expires=1758902400&amp;x-signature=yKWwqi2MsHDhmFVaH5YuJX8kVhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Para la gastritis es bueno?</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>45897.15864583333</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>45897</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>03:48:27</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543478247075103506', 'createTime': 1756352907, 'createTimeISO': '2025-08-28T03:48:27.000Z', 'text': 'Para la gastritis es bueno?', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 3, 'uid': '6993458811496662021', 'uniqueId': 'crisdel950', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/03bcd772434577293756faebd745a1c3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=647e0e10&amp;x-expires=1758902400&amp;x-signature=cx%2BlObbz7Bf8d5hlWsTovriEb10%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>🥰Por fin Alpina nos hizo Kefir🥰🥰🥰</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>45899.69542824074</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>45899</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>16:41:25</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544419634150605575', 'createTime': 1756572085, 'createTimeISO': '2025-08-30T16:41:25.000Z', 'text': '🥰Por fin Alpina nos hizo Kefir🥰🥰🥰', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7176083204275946501', 'uniqueId': 'patricia46321', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/f785007880f9000c98b264d2c83f40a8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5ff8d4fd&amp;x-expires=1758902400&amp;x-signature=vqqZGeeLQlRbNEQnQDHSIYHU7Ms%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Ese kefir de alpina cada cuanto lo tomo y que cantidad??</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>45899.88623842593</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>45899</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>21:16:11</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544490347075519249', 'createTime': 1756588571, 'createTimeISO': '2025-08-30T21:16:11.000Z', 'text': 'Ese kefir de alpina cada cuanto lo tomo y que cantidad??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6768223805452272646', 'uniqueId': 'adrianaplazas7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7333261854901911557~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=682d97fc&amp;x-expires=1758902400&amp;x-signature=jR%2Fv7sMYgQdhOFc6bp9Xh7pkKGQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>no sabia que alpina lo vendia</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>45895.77103009259</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>45895</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>18:30:17</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542963335382450965', 'createTime': 1756233017, 'createTimeISO': '2025-08-26T18:30:17.000Z', 'text': 'no sabia que alpina lo vendia', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7167561264892511238', 'uniqueId': 'alejandroarenas2692', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/961701e9db6cd958912342e91eec6417~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d0e0ef5b&amp;x-expires=1758902400&amp;x-signature=WbglvgdibkpVqpfZee7%2By5pKoYQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Si es alpina es cariñoso.</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>45897.42258101852</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>45897</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10:08:31</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543576204125717265', 'createTime': 1756375711, 'createTimeISO': '2025-08-28T10:08:31.000Z', 'text': 'Si es alpina es cariñoso.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6808385254463456261', 'uniqueId': 'darnytrujilloh', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d0d56411ddb8bc9c4be933340cdb83ac~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=af2a2f69&amp;x-expires=1758902400&amp;x-signature=RG66e8GFfA5uOol5BpwwDKHa57Q%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>el mejor kefir que hay es el suero costeño.</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>45900.08541666667</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>45900</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>02:03:00</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544564335839789831', 'createTime': 1756605780, 'createTimeISO': '2025-08-31T02:03:00.000Z', 'text': 'el mejor kefir que hay es el suero costeño.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6946717632360449030', 'uniqueId': 'yovana15_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7324065586156634117~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f31e4c6a&amp;x-expires=1758902400&amp;x-signature=iWd8%2B6CuPqtfMUJr905kUvfZCp4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yo tengo kefir original y le regalo la cepa a los amigos y conocidos. Es fácil de hacer y es muy económico</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>45899.71730324074</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>45899</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>17:12:55</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544427731761791761', 'createTime': 1756573975, 'createTimeISO': '2025-08-30T17:12:55.000Z', 'text': 'Yo tengo kefir original y le regalo la cepa a los amigos y conocidos. Es fácil de hacer y es muy económico', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7315047279881536517', 'uniqueId': 'johnnyalexanderdi4', 'avatarThumbnail': 'https://lh3.googleusercontent.com/a/ACg8ocLc3H73OabgcKyh1yrWwPmQjEKJtZchPBtQc9MkbolJGxyLJFmU=s300-c', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Alguna persona que Venda los Bulgaros X favor los Necesito Urgente vivo en Bogotá</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>45897.26074074074</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>45897</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>06:15:28</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>12</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543516143929508626', 'createTime': 1756361728, 'createTimeISO': '2025-08-28T06:15:28.000Z', 'text': 'Alguna persona que Venda los Bulgaros X favor los Necesito Urgente vivo en Bogotá', 'diggCount': 3, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 12, 'uid': '6983134730574283781', 'uniqueId': 'natha30.5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/04fa043773c88d13b397da4803a10a1b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1aeaeca0&amp;x-expires=1758902400&amp;x-signature=cDYL5L0h6YDrU4XfrHt7tH7C5AA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TikTok</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>CAMPAÑA_MANUAL_MULTIPLE</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@user360907502/video/7542610432733859080?_r=1&amp;_t=ZS-900eDVc8Hkg</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Es mejor el de agua</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>45895.28712962963</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>45895</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>06:53:28</t>
-        </is>
-      </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542783762138022677', 'createTime': 1756191208, 'createTimeISO': '2025-08-26T06:53:28.000Z', 'text': 'Es mejor el de agua', 'diggCount': 2, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6777530734926251014', 'uniqueId': 'caroldriguez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/be947dbde27fc93955c21f71d27e3935~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=6b7497f4&amp;x-expires=1758902400&amp;x-signature=83uWrocEKdSr3EwAnGseRKYD5Nc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544171587986932487', 'createTime': 1756514345, 'createTimeISO': '2025-08-30T00:39:05.000Z', 'text': 'a qué sabe? jamás he probado el kefir.\npregunto: Sabe a kumis ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7322583010271904774', 'uniqueId': 'cr27916', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ebbe10a2ad197593da8936048757ae17~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aa8959c6&amp;x-expires=1758902400&amp;x-signature=yKWwqi2MsHDhmFVaH5YuJX8kVhs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2888,18 +2888,18 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ningún alimento procesado es tan saludable.</t>
+          <t>Ese kefir de alpina cada cuanto lo tomo y que cantidad??</t>
         </is>
       </c>
       <c r="G44" s="2" t="n">
-        <v>45900.23229166667</v>
+        <v>45899.88623842593</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05:34:30</t>
+          <t>21:16:11</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544618853164499719', 'createTime': 1756618470, 'createTimeISO': '2025-08-31T05:34:30.000Z', 'text': 'ningún alimento procesado es tan saludable.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001948351295325190', 'uniqueId': 'ivanaltamargomez', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7327249063312736261~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=9d23935a&amp;x-expires=1758902400&amp;x-signature=yvYxDF3tl7W4rMyzQ7zUYdJ9xhI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544490347075519249', 'createTime': 1756588571, 'createTimeISO': '2025-08-30T21:16:11.000Z', 'text': 'Ese kefir de alpina cada cuanto lo tomo y que cantidad??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6768223805452272646', 'uniqueId': 'adrianaplazas7', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7333261854901911557~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=682d97fc&amp;x-expires=1758902400&amp;x-signature=jR%2Fv7sMYgQdhOFc6bp9Xh7pkKGQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -2944,18 +2944,18 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>tiene azúcar?</t>
+          <t>Yo amo el kefir pero me toca tomarlo en la noche porque tengo que tomar hierro pero sería el hit en ayunas es delicioso</t>
         </is>
       </c>
       <c r="G45" s="2" t="n">
-        <v>45900.63511574074</v>
+        <v>45900.28616898148</v>
       </c>
       <c r="H45" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15:14:34</t>
+          <t>06:52:05</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544768335591457554', 'createTime': 1756653274, 'createTimeISO': '2025-08-31T15:14:34.000Z', 'text': 'tiene azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7508538977907213319', 'uniqueId': 'jacquelin.benavid1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/b137cf86ea4dc5aae74db622605f1fd4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=68d75d2d&amp;x-expires=1758902400&amp;x-signature=KpTAD1EXAYH8g5JUim4rvWl5JW4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544638830532576016', 'createTime': 1756623125, 'createTimeISO': '2025-08-31T06:52:05.000Z', 'text': 'Yo amo el kefir pero me toca tomarlo en la noche porque tengo que tomar hierro pero sería el hit en ayunas es delicioso', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6763628686895662085', 'uniqueId': 'ruthcastiblanco2', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/aa85829f133d1e581238f0ae84018a68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ca9605b2&amp;x-expires=1758902400&amp;x-signature=OwIHb252MxqpfSOI7I9JEPhhFAk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3000,18 +3000,18 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>yo lo tome y me sento de maravilla</t>
+          <t>todo lo que sale de las grandes fábricas es más malo</t>
         </is>
       </c>
       <c r="G46" s="2" t="n">
-        <v>45900.24172453704</v>
+        <v>45896.79949074074</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>45900</v>
+        <v>45896</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>05:48:05</t>
+          <t>19:11:16</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544622345572123399', 'createTime': 1756619285, 'createTimeISO': '2025-08-31T05:48:05.000Z', 'text': 'yo lo tome y me sento de maravilla', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7056565067706663941', 'uniqueId': 'dorisgonzalez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e8c40bbae12cb2812626e10297d911f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=661cb769&amp;x-expires=1758902400&amp;x-signature=JaUPT66EUvY5CoiGGiQ2NBX%2B5Fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543344951715873552', 'createTime': 1756321876, 'createTimeISO': '2025-08-27T19:11:16.000Z', 'text': 'todo lo que sale de las grandes fábricas es más malo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7260910659751691270', 'uniqueId': 'andrs.fit', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7260911727440986117~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30e05b06&amp;x-expires=1758902400&amp;x-signature=6N8kyLwR4tZZx6VxlOxgRl%2F0o%2FM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>como lo hago en casa gracias</t>
+          <t>¿y en la publicidad dicen que está lleno de azúcar?</t>
         </is>
       </c>
       <c r="G47" s="2" t="n">
-        <v>45897.11953703704</v>
+        <v>45895.84842592593</v>
       </c>
       <c r="H47" s="3" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>02:52:08</t>
+          <t>20:21:44</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543463736092705554', 'createTime': 1756349528, 'createTimeISO': '2025-08-28T02:52:08.000Z', 'text': 'como lo hago en casa gracias', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7292398885509923846', 'uniqueId': 'maria.elena.siach', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3169bba1bb293a749e24a87d38649134~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=f4c2c4b2&amp;x-expires=1758902400&amp;x-signature=ulkfUXj6Tu8YXnaV%2F2mhHqoyXEc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542992022437921537', 'createTime': 1756239704, 'createTimeISO': '2025-08-26T20:21:44.000Z', 'text': '¿y en la publicidad dicen que está lleno de azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7091396768256476165', 'uniqueId': 'graco.sama', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/54ad0213267a590e8b45cc153412254a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=95cb20ed&amp;x-expires=1758902400&amp;x-signature=bT1wAe3OOn4SsJwtXdDLCw4snvU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3112,18 +3112,18 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>siempre dicen que no tienen conservantes y tiene todo lo malo, es mejor algo natural.</t>
+          <t>cmo hacen los búlgaros gracias</t>
         </is>
       </c>
       <c r="G48" s="2" t="n">
-        <v>45900.70001157407</v>
+        <v>45896.83585648148</v>
       </c>
       <c r="H48" s="3" t="n">
-        <v>45900</v>
+        <v>45896</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>16:48:01</t>
+          <t>20:03:38</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544792407084385044', 'createTime': 1756658881, 'createTimeISO': '2025-08-31T16:48:01.000Z', 'text': 'siempre dicen que no tienen conservantes y tiene todo lo malo, es mejor algo natural.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818688059228668934', 'uniqueId': 'camilaquiroga65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328223221891268613~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac957cc4&amp;x-expires=1758902400&amp;x-signature=b00lXr42LISPuODEVSgSsXuGR7M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543358443353883399', 'createTime': 1756325018, 'createTimeISO': '2025-08-27T20:03:38.000Z', 'text': 'cmo hacen los búlgaros gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7037689273051202565', 'uniqueId': 'aida.mt65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3168,22 +3168,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Consuman keffir de sketos es el mejor 🥰</t>
+          <t>solo azucar , me quedo con las vitaminas del frutiño</t>
         </is>
       </c>
       <c r="G49" s="2" t="n">
-        <v>45896.39479166667</v>
+        <v>45896.1646875</v>
       </c>
       <c r="H49" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>09:28:30</t>
+          <t>03:57:09</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543194821331223304', 'createTime': 1756286910, 'createTimeISO': '2025-08-27T09:28:30.000Z', 'text': 'Consuman keffir de sketos es el mejor 🥰', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6603341795555786757', 'uniqueId': 'julianquintero91', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/327622f15b2768987b1f7e7033c6946d~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7320e829&amp;x-expires=1758902400&amp;x-signature=A7vrtlKuROSUEFe%2FhfAqO%2FQMYJE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543109416104493832', 'createTime': 1756267029, 'createTimeISO': '2025-08-27T03:57:09.000Z', 'text': 'solo azucar , me quedo con las vitaminas del frutiño', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6813039580453323781', 'uniqueId': 'nickgrav', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7318252965003788293~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e5938512&amp;x-expires=1758902400&amp;x-signature=UUbVODqvV1ZPdJvCZGaL6Smq9rc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3224,25 +3224,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>yo me tomé uno lo compré Enel supermercado D1 pequeño y me lo tomé todo casi me da algo me cayó mal 😏😭</t>
+          <t>son exelente yo los preparo y estoy muy aliviada de la gastritis.</t>
         </is>
       </c>
       <c r="G50" s="2" t="n">
-        <v>45899.8830787037</v>
+        <v>45899.06530092593</v>
       </c>
       <c r="H50" s="3" t="n">
         <v>45899</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>21:11:38</t>
+          <t>01:34:02</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L50" t="b">
         <v>0</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544489165204226833', 'createTime': 1756588298, 'createTimeISO': '2025-08-30T21:11:38.000Z', 'text': 'yo me tomé uno lo compré Enel supermercado D1 pequeño y me lo tomé todo casi me da algo me cayó mal 😏😭', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 13, 'uid': '6917683951453799429', 'uniqueId': 'katerineferrer4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/09ba3b58bee6907b0eab8e339e3d05b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf315d87&amp;x-expires=1758902400&amp;x-signature=M7qD%2Fx9JGCgPsTBWD4peQu1LANw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544185774196884231', 'createTime': 1756517642, 'createTimeISO': '2025-08-30T01:34:02.000Z', 'text': 'son exelente yo los preparo y estoy muy aliviada de la gastritis.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7385718069473117190', 'uniqueId': 'marthajaramillo926', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7385718599200604166~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8a50bb35&amp;x-expires=1758902400&amp;x-signature=JbxoJm1KOIpgS91ZNbHiwy%2B7lJc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3280,25 +3280,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Y quien es el para dar ese juicio de valor? ponerse bata no lo hace nutricionista...</t>
+          <t>que bueno</t>
         </is>
       </c>
       <c r="G51" s="2" t="n">
-        <v>45897.03737268518</v>
+        <v>45896.84421296296</v>
       </c>
       <c r="H51" s="3" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>00:53:49</t>
+          <t>20:15:40</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543433251365683976', 'createTime': 1756342429, 'createTimeISO': '2025-08-28T00:53:49.000Z', 'text': 'Y quien es el para dar ese juicio de valor? ponerse bata no lo hace nutricionista...', 'diggCount': 1, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 1, 'uid': '6807116470716384261', 'uniqueId': 'commissarfuklaw', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/9bdaaa9cdcb3909d3d117b1d48a3e3fa~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bc065d24&amp;x-expires=1758902400&amp;x-signature=s8FOX%2FOC5v88M%2BQrldx2p%2Bdcq8E%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543361547046601480', 'createTime': 1756325740, 'createTimeISO': '2025-08-27T20:15:40.000Z', 'text': 'que bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6832749643647976453', 'uniqueId': 'rosagaona978', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ff46270335f4a8ac9c297c929093b44c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6cabd60&amp;x-expires=1758902400&amp;x-signature=F33aCPzHpFRkdgvma%2BCvCKpP1sI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3336,18 +3336,18 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>que bueno</t>
+          <t>que. precio tiene</t>
         </is>
       </c>
       <c r="G52" s="2" t="n">
-        <v>45896.84421296296</v>
+        <v>45900.05649305556</v>
       </c>
       <c r="H52" s="3" t="n">
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20:15:40</t>
+          <t>01:21:21</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543361547046601480', 'createTime': 1756325740, 'createTimeISO': '2025-08-27T20:15:40.000Z', 'text': 'que bueno', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6832749643647976453', 'uniqueId': 'rosagaona978', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/ff46270335f4a8ac9c297c929093b44c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d6cabd60&amp;x-expires=1758902400&amp;x-signature=F33aCPzHpFRkdgvma%2BCvCKpP1sI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544553606939804424', 'createTime': 1756603281, 'createTimeISO': '2025-08-31T01:21:21.000Z', 'text': 'que. precio tiene', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960291502593491974', 'uniqueId': 'maria.himelda.cal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7340763166409785349~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c79fef6c&amp;x-expires=1758902400&amp;x-signature=zyP75pPzL0%2FUL%2FA9BNLDsfNcGwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3392,18 +3392,18 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>yo lo hago en casa súper 😏</t>
+          <t>de que es la preparación</t>
         </is>
       </c>
       <c r="G53" s="2" t="n">
-        <v>45900.1175</v>
+        <v>45895.83930555556</v>
       </c>
       <c r="H53" s="3" t="n">
-        <v>45900</v>
+        <v>45895</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>02:49:12</t>
+          <t>20:08:36</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544576231977091847', 'createTime': 1756608552, 'createTimeISO': '2025-08-31T02:49:12.000Z', 'text': 'yo lo hago en casa súper 😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819861499177288710', 'uniqueId': 'sandrartorres', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/d45b2c0aa60f8f889890aea3c3e34386~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=21101d87&amp;x-expires=1758902400&amp;x-signature=ekHxG%2Fij5wyMdgvIf6FnjxLYh%2Fk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542988636293202709', 'createTime': 1756238916, 'createTimeISO': '2025-08-26T20:08:36.000Z', 'text': 'de que es la preparación', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7266525404759802886', 'uniqueId': 'ruizalzategloria', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c9bd65c2dba87ccb8ac77e4fc71cd959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=755a47dc&amp;x-expires=1758902400&amp;x-signature=Dg0K6bU1wre0%2FlLDUY0B2HB0kzY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3448,18 +3448,18 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>todo lo que sale de las grandes fábricas es más malo</t>
+          <t>y no tiene azúcar?</t>
         </is>
       </c>
       <c r="G54" s="2" t="n">
-        <v>45896.79949074074</v>
+        <v>45896.89579861111</v>
       </c>
       <c r="H54" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>19:11:16</t>
+          <t>21:29:57</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543344951715873552', 'createTime': 1756321876, 'createTimeISO': '2025-08-27T19:11:16.000Z', 'text': 'todo lo que sale de las grandes fábricas es más malo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7260910659751691270', 'uniqueId': 'andrs.fit', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7260911727440986117~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30e05b06&amp;x-expires=1758902400&amp;x-signature=6N8kyLwR4tZZx6VxlOxgRl%2F0o%2FM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543380696275600135', 'createTime': 1756330197, 'createTimeISO': '2025-08-27T21:29:57.000Z', 'text': 'y no tiene azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7304416571883127813', 'uniqueId': 'sandra.patricia.m090', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/3d7143210ef13073cdeaf27c39965e41~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dc899dff&amp;x-expires=1758902400&amp;x-signature=7gf7hVj06HakELuqkNwc%2FCJCVOA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3504,18 +3504,18 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cmo hacen los búlgaros gracias</t>
+          <t>yo lo compro en el éxito 😏</t>
         </is>
       </c>
       <c r="G55" s="2" t="n">
-        <v>45896.83585648148</v>
+        <v>45896.88668981481</v>
       </c>
       <c r="H55" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>20:03:38</t>
+          <t>21:16:50</t>
         </is>
       </c>
       <c r="J55" t="n">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543358443353883399', 'createTime': 1756325018, 'createTimeISO': '2025-08-27T20:03:38.000Z', 'text': 'cmo hacen los búlgaros gracias', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7037689273051202565', 'uniqueId': 'aida.mt65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543377333131199250', 'createTime': 1756329410, 'createTimeISO': '2025-08-27T21:16:50.000Z', 'text': 'yo lo compro en el éxito 😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406858735559427078', 'uniqueId': 'vane38366', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5a44a9349b0e6385c24e5ab74f8501a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7649d28&amp;x-expires=1758902400&amp;x-signature=Ue0y6G2KCnjyCK84Kf07UiPGLNs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3560,18 +3560,18 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>lo necesito</t>
+          <t>es excelente!!! aunque lo consigues de diferente marcas siempre será costoso!!! botella de 1000 está entre 27 mil a 35 mil pesos!!!</t>
         </is>
       </c>
       <c r="G56" s="2" t="n">
-        <v>45898.86965277778</v>
+        <v>45899.67782407408</v>
       </c>
       <c r="H56" s="3" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20:52:18</t>
+          <t>16:16:04</t>
         </is>
       </c>
       <c r="J56" t="n">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544113135827059457', 'createTime': 1756500738, 'createTimeISO': '2025-08-29T20:52:18.000Z', 'text': 'lo necesito', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6802237485696336901', 'uniqueId': 'yohanitacortes05', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bdacb2938dd228d5cf6e0b5b303cd486~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dfbabad1&amp;x-expires=1758902400&amp;x-signature=PI8bM8it2oew4Hif743hDCkhTPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544413092638868232', 'createTime': 1756570564, 'createTimeISO': '2025-08-30T16:16:04.000Z', 'text': 'es excelente!!! aunque lo consigues de diferente marcas siempre será costoso!!! botella de 1000 está entre 27 mil a 35 mil pesos!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7488878679603495953', 'uniqueId': 'zory.pardo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4970d316a30637324a051123fe5326e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e212b79&amp;x-expires=1758902400&amp;x-signature=1GU%2F8ONVU%2Bj4P6wGxA0BHCl4y3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3616,18 +3616,18 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>yo lo consumo regularmente y es un regalo para nuestro segundo cerebro entre más natural sea el kéfir mucho mejor</t>
+          <t>donde se compra</t>
         </is>
       </c>
       <c r="G57" s="2" t="n">
-        <v>45896.66024305556</v>
+        <v>45895.86732638889</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>15:50:45</t>
+          <t>20:48:57</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543293308027749137', 'createTime': 1756309845, 'createTimeISO': '2025-08-27T15:50:45.000Z', 'text': 'yo lo consumo regularmente y es un regalo para nuestro segundo cerebro entre más natural sea el kéfir mucho mejor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7451781618191598598', 'uniqueId': 'juank4482', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/97c375ea6d875eb2352fab34c0a7d291~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9ae4ba9&amp;x-expires=1758902400&amp;x-signature=%2Brd11aIM%2BC2xJ6eJGmUk0vptdJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542999000036819730', 'createTime': 1756241337, 'createTimeISO': '2025-08-26T20:48:57.000Z', 'text': 'donde se compra', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7407433643357012997', 'uniqueId': 'yhoan320', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7ba3b107c93d36604448d189a080bd5f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5093ed61&amp;x-expires=1758902400&amp;x-signature=ywOFV3aZri2C4k200PjuOeDx6g4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3672,18 +3672,18 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>lo mejor de lo mejor yo lo preparo en casa con mis búlgaros</t>
+          <t>donde se consigue</t>
         </is>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45896.66462962963</v>
+        <v>45895.88931712963</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15:57:04</t>
+          <t>21:20:37</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543294944598950663', 'createTime': 1756310224, 'createTimeISO': '2025-08-27T15:57:04.000Z', 'text': 'lo mejor de lo mejor yo lo preparo en casa con mis búlgaros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7497067385318048786', 'uniqueId': 'lliana.rubiano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/70f4e48bc92f164ae4d965ca4db930df~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=727a9e9b&amp;x-expires=1758902400&amp;x-signature=d13614pFQahTfR94WExDe1gmFN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543007180577653511', 'createTime': 1756243237, 'createTimeISO': '2025-08-26T21:20:37.000Z', 'text': 'donde se consigue', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319299516199928838', 'uniqueId': 'maritzaardila58', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7388864724099694598~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=295c0a60&amp;x-expires=1758902400&amp;x-signature=z%2BE%2FmU7EZFg7lPdzpG1sMzcjsSQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3728,18 +3728,18 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>como se toma y que cantidad</t>
+          <t>en que momento se debe tomar</t>
         </is>
       </c>
       <c r="G59" s="2" t="n">
-        <v>45898.85422453703</v>
+        <v>45899.06206018518</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>20:30:05</t>
+          <t>01:29:22</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544107438367490837', 'createTime': 1756499405, 'createTimeISO': '2025-08-29T20:30:05.000Z', 'text': 'como se toma y que cantidad', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7038398120849703942', 'uniqueId': 'marcelabohorquez19', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/762e4e3d9e4ab1d56a0170c9f4de28ba~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=283b0f1c&amp;x-expires=1758902400&amp;x-signature=gwPiQSLU9blYVoBEqQ6gQUY8RlA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544184592048276245', 'createTime': 1756517362, 'createTimeISO': '2025-08-30T01:29:22.000Z', 'text': 'en que momento se debe tomar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6537396268166026240', 'uniqueId': 'angelmagno4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5c334c90e16a710c7fc674fa8df53b11~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=537ef104&amp;x-expires=1758902400&amp;x-signature=wG6772VUWgS%2FoEgEyvDgxi4TL2s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3784,18 +3784,18 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Yo lo preparo en casa</t>
+          <t>A que hora es mejor tomarlo</t>
         </is>
       </c>
       <c r="G60" s="2" t="n">
-        <v>45896.71127314815</v>
+        <v>45900.66346064815</v>
       </c>
       <c r="H60" s="3" t="n">
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>17:04:14</t>
+          <t>15:55:23</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543312242587779848', 'createTime': 1756314254, 'createTimeISO': '2025-08-27T17:04:14.000Z', 'text': 'Yo lo preparo en casa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6942641567292408837', 'uniqueId': 'lucydavila112', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/1e0165ed1b649671175cfcda5faaca69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7991f47e&amp;x-expires=1758902400&amp;x-signature=Qckk%2B529VuBUM%2BHWMAwcL%2B9tbbA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544778830114243335', 'createTime': 1756655723, 'createTimeISO': '2025-08-31T15:55:23.000Z', 'text': 'A que hora es mejor tomarlo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7274229004382913541', 'uniqueId': 'pauolmos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4135d547e16d47aecae628575de92884~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0255d36c&amp;x-expires=1758902400&amp;x-signature=PyjMjLwAdnw2Er8oB5f4maBs6Mc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3840,18 +3840,18 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>yo lo compro en el éxito 😏</t>
+          <t>con este patrocinio confirmo por q no le creo tanto a este señor</t>
         </is>
       </c>
       <c r="G61" s="2" t="n">
-        <v>45896.88668981481</v>
+        <v>45896.86733796296</v>
       </c>
       <c r="H61" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>21:16:50</t>
+          <t>20:48:58</t>
         </is>
       </c>
       <c r="J61" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543377333131199250', 'createTime': 1756329410, 'createTimeISO': '2025-08-27T21:16:50.000Z', 'text': 'yo lo compro en el éxito 😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7406858735559427078', 'uniqueId': 'vane38366', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/e5a44a9349b0e6385c24e5ab74f8501a~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=d7649d28&amp;x-expires=1758902400&amp;x-signature=Ue0y6G2KCnjyCK84Kf07UiPGLNs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543370118115115797', 'createTime': 1756327738, 'createTimeISO': '2025-08-27T20:48:58.000Z', 'text': 'con este patrocinio confirmo por q no le creo tanto a este señor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7012373585503372294', 'uniqueId': 'imcbastian', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326851877143298054~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd66996e&amp;x-expires=1758902400&amp;x-signature=2LkWpSCsD6vwGYYAdG5WKBN0Kn0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3896,18 +3896,18 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>lo compre porque me lo recomendaron para la gastritis pero casi muero de gases. terrible no lo tolero.</t>
+          <t>y los ultra procesados?</t>
         </is>
       </c>
       <c r="G62" s="2" t="n">
-        <v>45900.8815625</v>
+        <v>45896.98763888889</v>
       </c>
       <c r="H62" s="3" t="n">
-        <v>45900</v>
+        <v>45896</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>21:09:27</t>
+          <t>23:42:12</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544859645590061841', 'createTime': 1756674567, 'createTimeISO': '2025-08-31T21:09:27.000Z', 'text': 'lo compre porque me lo recomendaron para la gastritis pero casi muero de gases. terrible no lo tolero.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6956840044754387973', 'uniqueId': 'franquiz1973', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7100594850907488262~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0fee4000&amp;x-expires=1758902400&amp;x-signature=naf%2BlVFcSQFFN4UqnGZMH6bz27M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543414715722269441', 'createTime': 1756338132, 'createTimeISO': '2025-08-27T23:42:12.000Z', 'text': 'y los ultra procesados?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7345859912403420166', 'uniqueId': 'politicamente_1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/cee265916d42a8e2bb2d7ec1430d72fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1431cc35&amp;x-expires=1758902400&amp;x-signature=f9BqEyUjdGxxsXfQ1Tkml2nooRY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -3952,25 +3952,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>alguien que me enseñe</t>
+          <t>dónde puedo conseguir los búlgaros para hacer keyfir</t>
         </is>
       </c>
       <c r="G63" s="2" t="n">
-        <v>45899.88355324074</v>
+        <v>45895.68930555556</v>
       </c>
       <c r="H63" s="3" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>21:12:19</t>
+          <t>16:32:36</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544489351809762065', 'createTime': 1756588339, 'createTimeISO': '2025-08-30T21:12:19.000Z', 'text': 'alguien que me enseñe', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6917683951453799429', 'uniqueId': 'katerineferrer4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/09ba3b58bee6907b0eab8e339e3d05b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=bf315d87&amp;x-expires=1758902400&amp;x-signature=M7qD%2Fx9JGCgPsTBWD4peQu1LANw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542933006908211976', 'createTime': 1756225956, 'createTimeISO': '2025-08-26T16:32:36.000Z', 'text': 'dónde puedo conseguir los búlgaros para hacer keyfir', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 6, 'uid': '7292094492923724806', 'uniqueId': 'ruben.guevara54', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7292094899573227526~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=c9f52952&amp;x-expires=1758902400&amp;x-signature=vtExEJjlfcA6oNzVVBFev%2B8cuz0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4008,18 +4008,18 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>y que decir del Precio ????😳😳😳</t>
+          <t>ningún alimento procesado es tan saludable.</t>
         </is>
       </c>
       <c r="G64" s="2" t="n">
-        <v>45898.81418981482</v>
+        <v>45900.23229166667</v>
       </c>
       <c r="H64" s="3" t="n">
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>19:32:26</t>
+          <t>05:34:30</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544092610579743493', 'createTime': 1756495946, 'createTimeISO': '2025-08-29T19:32:26.000Z', 'text': 'y que decir del Precio ????😳😳😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039316567075193861', 'uniqueId': 'user9209418365521', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7290744001640103942~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84e4e385&amp;x-expires=1758902400&amp;x-signature=iaQx%2BDc3Ukh54ty03XLR03Kd59w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544618853164499719', 'createTime': 1756618470, 'createTimeISO': '2025-08-31T05:34:30.000Z', 'text': 'ningún alimento procesado es tan saludable.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7001948351295325190', 'uniqueId': 'ivanaltamargomez', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/7327249063312736261~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=62eb02c7&amp;x-expires=1758902400&amp;x-signature=NeRE%2FLVDQoglt91j%2FLPWhJSdplQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4064,18 +4064,18 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>lo voy a comprar👌</t>
+          <t>Bueno pero en el d1 ya lo consiguen a 4mil, alpina mínimo 15k</t>
         </is>
       </c>
       <c r="G65" s="2" t="n">
-        <v>45899.58230324074</v>
+        <v>45900.69099537037</v>
       </c>
       <c r="H65" s="3" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>13:58:31</t>
+          <t>16:35:02</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544377639438729991', 'createTime': 1756562311, 'createTimeISO': '2025-08-30T13:58:31.000Z', 'text': 'lo voy a comprar👌', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6921336333969507334', 'uniqueId': 'ahumy', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5d2589f00762e65fd95e1562aef50e00~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3e0c79ef&amp;x-expires=1758902400&amp;x-signature=UCha6TJMN%2BA%2FCdCoc31lRZeohPA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544789071563440916', 'createTime': 1756658102, 'createTimeISO': '2025-08-31T16:35:02.000Z', 'text': 'Bueno pero en el d1 ya lo consiguen a 4mil, alpina mínimo 15k', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878118356404372486', 'uniqueId': 'juand9914', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/c897a483bddfcd4012a6f9f80bec9ad3~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=7e55b818&amp;x-expires=1758902400&amp;x-signature=5%2BSqw2gyOKpbObSnB45hMa5VO6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4120,18 +4120,18 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Pero el del alpina no 😂😂😂</t>
+          <t>yo lo hago en casa súper 😏</t>
         </is>
       </c>
       <c r="G66" s="2" t="n">
-        <v>45897.65636574074</v>
+        <v>45900.1175</v>
       </c>
       <c r="H66" s="3" t="n">
-        <v>45897</v>
+        <v>45900</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>15:45:10</t>
+          <t>02:49:12</t>
         </is>
       </c>
       <c r="J66" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543662960197272328', 'createTime': 1756395910, 'createTimeISO': '2025-08-28T15:45:10.000Z', 'text': 'Pero el del alpina no 😂😂😂', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7179725573806539782', 'uniqueId': 'brolin7934', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7180179005214851078~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=aebd36a0&amp;x-expires=1758902400&amp;x-signature=RAufIlvtlu1cmHTdQmc6GT%2FuS2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544576231977091847', 'createTime': 1756608552, 'createTimeISO': '2025-08-31T02:49:12.000Z', 'text': 'yo lo hago en casa súper 😏', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819861499177288710', 'uniqueId': 'sandrartorres', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/d45b2c0aa60f8f889890aea3c3e34386~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=1e14fe30&amp;x-expires=1758902400&amp;x-signature=PR8AQlWlkO4l8pCZhdG0Ll84Qq0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4176,18 +4176,18 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>es excelente</t>
+          <t>tiene azúcar?</t>
         </is>
       </c>
       <c r="G67" s="2" t="n">
-        <v>45899.05079861111</v>
+        <v>45900.63511574074</v>
       </c>
       <c r="H67" s="3" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>01:13:09</t>
+          <t>15:14:34</t>
         </is>
       </c>
       <c r="J67" t="n">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544180412634383112', 'createTime': 1756516389, 'createTimeISO': '2025-08-30T01:13:09.000Z', 'text': 'es excelente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255816541856924677', 'uniqueId': 'elisabet.garcia5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7293236834761441285~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=beb8d96c&amp;x-expires=1758902400&amp;x-signature=T4ZwQFwbSzGrMs6z03VgmlBnXI8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544768335591457554', 'createTime': 1756653274, 'createTimeISO': '2025-08-31T15:14:34.000Z', 'text': 'tiene azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7508538977907213319', 'uniqueId': 'jacquelin.benavid1', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/b137cf86ea4dc5aae74db622605f1fd4~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=29ef7aa9&amp;x-expires=1758902400&amp;x-signature=bLtumlUF7CHiqM1zn%2F9H0Gc4z2Y%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4232,18 +4232,19 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>que. precio tiene</t>
+          <t>lo más natural y económico en casa
+tu mismo lo haces 😋</t>
         </is>
       </c>
       <c r="G68" s="2" t="n">
-        <v>45900.05649305556</v>
+        <v>45899.10901620371</v>
       </c>
       <c r="H68" s="3" t="n">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>01:21:21</t>
+          <t>02:36:59</t>
         </is>
       </c>
       <c r="J68" t="n">
@@ -4262,7 +4263,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544553606939804424', 'createTime': 1756603281, 'createTimeISO': '2025-08-31T01:21:21.000Z', 'text': 'que. precio tiene', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6960291502593491974', 'uniqueId': 'maria.himelda.cal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7340763166409785349~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c79fef6c&amp;x-expires=1758902400&amp;x-signature=zyP75pPzL0%2FUL%2FA9BNLDsfNcGwQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544202000898130696', 'createTime': 1756521419, 'createTimeISO': '2025-08-30T02:36:59.000Z', 'text': 'lo más natural y económico en casa\ntu mismo lo haces 😋', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6956750418749080582', 'uniqueId': 'liye0407', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/c0d78481e6a7d8b23bb9a259a608a874~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=92e29007&amp;x-expires=1758902400&amp;x-signature=%2FPIrFjgBYEwBjf3UxqpmQu8AdZQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4288,18 +4289,18 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A que hora es mejor tomarlo</t>
+          <t>Que ironía hace años le quitaron todos los probioticos que ya traía el yogur porque era malo y ahora lo venden más caro porque es necesario.</t>
         </is>
       </c>
       <c r="G69" s="2" t="n">
-        <v>45900.66346064815</v>
+        <v>45898.12568287037</v>
       </c>
       <c r="H69" s="3" t="n">
-        <v>45900</v>
+        <v>45898</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>15:55:23</t>
+          <t>03:00:59</t>
         </is>
       </c>
       <c r="J69" t="n">
@@ -4318,7 +4319,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544778830114243335', 'createTime': 1756655723, 'createTimeISO': '2025-08-31T15:55:23.000Z', 'text': 'A que hora es mejor tomarlo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7274229004382913541', 'uniqueId': 'pauolmos', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4135d547e16d47aecae628575de92884~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0255d36c&amp;x-expires=1758902400&amp;x-signature=PyjMjLwAdnw2Er8oB5f4maBs6Mc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543837108093289236', 'createTime': 1756436459, 'createTimeISO': '2025-08-29T03:00:59.000Z', 'text': 'Que ironía hace años le quitaron todos los probioticos que ya traía el yogur porque era malo y ahora lo venden más caro porque es necesario.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964234448910468097', 'uniqueId': 'jamessuarez155', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/7323742512063971330~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=88147d38&amp;x-expires=1758902400&amp;x-signature=x7P749p%2FoAnbkCFGBjePVQozCMs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4344,18 +4345,18 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>dónde lo consigo</t>
+          <t>Si dice que sabe bueno es por que tiene azúcar entocnes por que no tiene sellos?</t>
         </is>
       </c>
       <c r="G70" s="2" t="n">
-        <v>45900.08140046296</v>
+        <v>45900.58768518519</v>
       </c>
       <c r="H70" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>01:57:13</t>
+          <t>14:06:16</t>
         </is>
       </c>
       <c r="J70" t="n">
@@ -4374,7 +4375,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544562838452011784', 'createTime': 1756605433, 'createTimeISO': '2025-08-31T01:57:13.000Z', 'text': 'dónde lo consigo', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7165596110777041926', 'uniqueId': 'fredyrico3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328725743867789318~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=3174a02e&amp;x-expires=1758902400&amp;x-signature=mwm17qPN%2F1Mxraqgm9wBmUWDpLA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544750742922494728', 'createTime': 1756649176, 'createTimeISO': '2025-08-31T14:06:16.000Z', 'text': 'Si dice que sabe bueno es por que tiene azúcar entocnes por que no tiene sellos?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964398242164769797', 'uniqueId': 'giovannymarin907', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/1d1a8bef231b9e7d8e956bd92c996990~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=780cae5f&amp;x-expires=1758902400&amp;x-signature=y5P7HX6nKygBQ4m6J0gJTCjZ%2Bs8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4400,19 +4401,18 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>lo más natural y económico en casa
-tu mismo lo haces 😋</t>
+          <t>el mejor es el que haces en casa, yo lo preparo es súper fácil.</t>
         </is>
       </c>
       <c r="G71" s="2" t="n">
-        <v>45899.10901620371</v>
+        <v>45899.84932870371</v>
       </c>
       <c r="H71" s="3" t="n">
         <v>45899</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>02:36:59</t>
+          <t>20:23:02</t>
         </is>
       </c>
       <c r="J71" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544202000898130696', 'createTime': 1756521419, 'createTimeISO': '2025-08-30T02:36:59.000Z', 'text': 'lo más natural y económico en casa\ntu mismo lo haces 😋', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6956750418749080582', 'uniqueId': 'liye0407', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c0d78481e6a7d8b23bb9a259a608a874~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=950aad66&amp;x-expires=1758902400&amp;x-signature=YchL8sUysrtahdu4FuxMc1oWQow%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544476713028518677', 'createTime': 1756585382, 'createTimeISO': '2025-08-30T20:23:02.000Z', 'text': 'el mejor es el que haces en casa, yo lo preparo es súper fácil.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181864459169727494', 'uniqueId': 'aragonjim3', 'avatarThumbnail': 'https://p16-sign-sg.tiktokcdn.com/tos-alisg-avt-0068/9b0cd69862891780431cbf5065b7fae7~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=a1247b71&amp;x-expires=1758902400&amp;x-signature=fVbEAEdivOi4fPZT4OZ%2BvCHR4nU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4457,18 +4457,18 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>y cuántos granos de azúcar?</t>
+          <t>alguien que me enseñe</t>
         </is>
       </c>
       <c r="G72" s="2" t="n">
-        <v>45899.82758101852</v>
+        <v>45899.88355324074</v>
       </c>
       <c r="H72" s="3" t="n">
         <v>45899</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>19:51:43</t>
+          <t>21:12:19</t>
         </is>
       </c>
       <c r="J72" t="n">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544468650900767495', 'createTime': 1756583503, 'createTimeISO': '2025-08-30T19:51:43.000Z', 'text': 'y cuántos granos de azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6691681434376127494', 'uniqueId': 'jumper2049', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/3f6aba8b7a2c4a96406606fdfb384f35~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=33e6836f&amp;x-expires=1758902400&amp;x-signature=wxSNkKEMhx12gyAtHGaaCWg8H9I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544489351809762065', 'createTime': 1756588339, 'createTimeISO': '2025-08-30T21:12:19.000Z', 'text': 'alguien que me enseñe', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6917683951453799429', 'uniqueId': 'katerineferrer4', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/09ba3b58bee6907b0eab8e339e3d05b1~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=089f4102&amp;x-expires=1758902400&amp;x-signature=45lwKAz21LRbnP6ms%2Frwxq0KR%2Fs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4513,18 +4513,18 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>debe ser 1al día??</t>
+          <t>Pero donde lo consigo porque lo ando buscando. En qué tiendas están ? Porque en las olímpicas no</t>
         </is>
       </c>
       <c r="G73" s="2" t="n">
-        <v>45900.12131944444</v>
+        <v>45900.04759259259</v>
       </c>
       <c r="H73" s="3" t="n">
         <v>45900</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>02:54:42</t>
+          <t>01:08:32</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544577659256472328', 'createTime': 1756608882, 'createTimeISO': '2025-08-31T02:54:42.000Z', 'text': 'debe ser 1al día??', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6862877766929941510', 'uniqueId': 'derly1328', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f1ae8689c73b04a200b8e8a07376bec2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ba2e565b&amp;x-expires=1758902400&amp;x-signature=5NgOlm5CsytECJWHClhrUjOELFc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544550296702337799', 'createTime': 1756602512, 'createTimeISO': '2025-08-31T01:08:32.000Z', 'text': 'Pero donde lo consigo porque lo ando buscando. En qué tiendas están ? Porque en las olímpicas no', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136360961553073157', 'uniqueId': 'mirian.gomez.atencia', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/fb99d8f27a21bbb71c28d40f2bdefb69~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=65222591&amp;x-expires=1758902400&amp;x-signature=05BdSgxdoYyz76I1geCR1bPNhzk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4569,18 +4569,18 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Yo lo estoy preparando en casa pero no me alcanzo a tomar todo el que preparo porque lo hago cada 12 horas para que no me quede tan ácido</t>
+          <t>es excelente</t>
         </is>
       </c>
       <c r="G74" s="2" t="n">
-        <v>45900.63222222222</v>
+        <v>45899.05079861111</v>
       </c>
       <c r="H74" s="3" t="n">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>15:10:24</t>
+          <t>01:13:09</t>
         </is>
       </c>
       <c r="J74" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544767262232036103', 'createTime': 1756653024, 'createTimeISO': '2025-08-31T15:10:24.000Z', 'text': 'Yo lo estoy preparando en casa pero no me alcanzo a tomar todo el que preparo porque lo hago cada 12 horas para que no me quede tan ácido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607546814818779141', 'uniqueId': 'vivianadiosa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2e59e65d02647d5d7b491f813ef4f1d5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8da9c27b&amp;x-expires=1758902400&amp;x-signature=OcnB4wKKCHwVVE1b1n9XH9dIV6o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544180412634383112', 'createTime': 1756516389, 'createTimeISO': '2025-08-30T01:13:09.000Z', 'text': 'es excelente', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7255816541856924677', 'uniqueId': 'elisabet.garcia5', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7293236834761441285~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=beb8d96c&amp;x-expires=1758902400&amp;x-signature=T4ZwQFwbSzGrMs6z03VgmlBnXI8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4625,18 +4625,18 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>son exelente yo los preparo y estoy muy aliviada de la gastritis.</t>
+          <t>leí los ingredientes...y tiene almidón de maíz ! que hace ese ingrediente ahí ?</t>
         </is>
       </c>
       <c r="G75" s="2" t="n">
-        <v>45899.06530092593</v>
+        <v>45895.74320601852</v>
       </c>
       <c r="H75" s="3" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>01:34:02</t>
+          <t>17:50:13</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544185774196884231', 'createTime': 1756517642, 'createTimeISO': '2025-08-30T01:34:02.000Z', 'text': 'son exelente yo los preparo y estoy muy aliviada de la gastritis.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7385718069473117190', 'uniqueId': 'marthajaramillo926', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7385718599200604166~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ae82dd51&amp;x-expires=1758902400&amp;x-signature=jhBxRywj7dRIdrzZyfkge4bXbuQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542953026261336840', 'createTime': 1756230613, 'createTimeISO': '2025-08-26T17:50:13.000Z', 'text': 'leí los ingredientes...y tiene almidón de maíz ! que hace ese ingrediente ahí ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6945255795723420678', 'uniqueId': 'andresrodriguez9133', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/714b49f3a73c3d10976dd031b7cb687b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=a58392af&amp;x-expires=1758902400&amp;x-signature=kxSn4yxda0hYiEK43yaxol3egNI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4681,18 +4681,18 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>en que momento se debe tomar</t>
+          <t>receta por favor</t>
         </is>
       </c>
       <c r="G76" s="2" t="n">
-        <v>45899.06206018518</v>
+        <v>45895.73127314815</v>
       </c>
       <c r="H76" s="3" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>01:29:22</t>
+          <t>17:33:02</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544184592048276245', 'createTime': 1756517362, 'createTimeISO': '2025-08-30T01:29:22.000Z', 'text': 'en que momento se debe tomar', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6537396268166026240', 'uniqueId': 'angelmagno4', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/5c334c90e16a710c7fc674fa8df53b11~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=537ef104&amp;x-expires=1758902400&amp;x-signature=wG6772VUWgS%2FoEgEyvDgxi4TL2s%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542948569046467345', 'createTime': 1756229582, 'createTimeISO': '2025-08-26T17:33:02.000Z', 'text': 'receta por favor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7353265697869513734', 'uniqueId': 'mp49226', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/8d1b7cd21a2fc6a10eff8e1590196b47~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8eb8ac15&amp;x-expires=1758902400&amp;x-signature=QrRZFpVMUQgDjrPaNBkZzugmpMc%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4737,18 +4737,18 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>es excelente!!! aunque lo consigues de diferente marcas siempre será costoso!!! botella de 1000 está entre 27 mil a 35 mil pesos!!!</t>
+          <t>yo lo tome y me sento de maravilla</t>
         </is>
       </c>
       <c r="G77" s="2" t="n">
-        <v>45899.67782407408</v>
+        <v>45900.24172453704</v>
       </c>
       <c r="H77" s="3" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>16:16:04</t>
+          <t>05:48:05</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544413092638868232', 'createTime': 1756570564, 'createTimeISO': '2025-08-30T16:16:04.000Z', 'text': 'es excelente!!! aunque lo consigues de diferente marcas siempre será costoso!!! botella de 1000 está entre 27 mil a 35 mil pesos!!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7488878679603495953', 'uniqueId': 'zory.pardo', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4970d316a30637324a051123fe5326e8~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1e212b79&amp;x-expires=1758902400&amp;x-signature=1GU%2F8ONVU%2Bj4P6wGxA0BHCl4y3I%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544622345572123399', 'createTime': 1756619285, 'createTimeISO': '2025-08-31T05:48:05.000Z', 'text': 'yo lo tome y me sento de maravilla', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7056565067706663941', 'uniqueId': 'dorisgonzalez228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e8c40bbae12cb2812626e10297d911f9~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=661cb769&amp;x-expires=1758902400&amp;x-signature=JaUPT66EUvY5CoiGGiQ2NBX%2B5Fw%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4793,18 +4793,18 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Si dice que sabe bueno es por que tiene azúcar entocnes por que no tiene sellos?</t>
+          <t>yo lo consumo regularmente y es un regalo para nuestro segundo cerebro entre más natural sea el kéfir mucho mejor</t>
         </is>
       </c>
       <c r="G78" s="2" t="n">
-        <v>45900.58768518519</v>
+        <v>45896.66024305556</v>
       </c>
       <c r="H78" s="3" t="n">
-        <v>45900</v>
+        <v>45896</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>14:06:16</t>
+          <t>15:50:45</t>
         </is>
       </c>
       <c r="J78" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544750742922494728', 'createTime': 1756649176, 'createTimeISO': '2025-08-31T14:06:16.000Z', 'text': 'Si dice que sabe bueno es por que tiene azúcar entocnes por que no tiene sellos?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964398242164769797', 'uniqueId': 'giovannymarin907', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1d1a8bef231b9e7d8e956bd92c996990~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=869b7c41&amp;x-expires=1758902400&amp;x-signature=fCeF%2BaGA47P9reO%2FbNXejCzzqCk%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543293308027749137', 'createTime': 1756309845, 'createTimeISO': '2025-08-27T15:50:45.000Z', 'text': 'yo lo consumo regularmente y es un regalo para nuestro segundo cerebro entre más natural sea el kéfir mucho mejor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7451781618191598598', 'uniqueId': 'juank4482', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/97c375ea6d875eb2352fab34c0a7d291~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b9ae4ba9&amp;x-expires=1758902400&amp;x-signature=%2Brd11aIM%2BC2xJ6eJGmUk0vptdJs%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4849,18 +4849,18 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pero donde lo consigo porque lo ando buscando. En qué tiendas están ? Porque en las olímpicas no</t>
+          <t>hay de color y sabor natural ?</t>
         </is>
       </c>
       <c r="G79" s="2" t="n">
-        <v>45900.04759259259</v>
+        <v>45895.8678125</v>
       </c>
       <c r="H79" s="3" t="n">
-        <v>45900</v>
+        <v>45895</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>01:08:32</t>
+          <t>20:49:39</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544550296702337799', 'createTime': 1756602512, 'createTimeISO': '2025-08-31T01:08:32.000Z', 'text': 'Pero donde lo consigo porque lo ando buscando. En qué tiendas están ? Porque en las olímpicas no', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7136360961553073157', 'uniqueId': 'mirian.gomez.atencia', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/fb99d8f27a21bbb71c28d40f2bdefb69~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c5210a0c&amp;x-expires=1758902400&amp;x-signature=vVF%2FzKGFaeYR1FGtiHulbiyV5qU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542999069507371793', 'createTime': 1756241379, 'createTimeISO': '2025-08-26T20:49:39.000Z', 'text': 'hay de color y sabor natural ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6919143037265019909', 'uniqueId': 'mylittlejulic', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ea1da93383040fd348cbd365caadfe68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0dc869b2&amp;x-expires=1758902400&amp;x-signature=M3lOz0ujEcS3YoZ6KNFlp%2BN9W6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4905,18 +4905,18 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>el mejor es el que haces en casa, yo lo preparo es súper fácil.</t>
+          <t>lo compre porque me lo recomendaron para la gastritis pero casi muero de gases. terrible no lo tolero.</t>
         </is>
       </c>
       <c r="G80" s="2" t="n">
-        <v>45899.84932870371</v>
+        <v>45900.8815625</v>
       </c>
       <c r="H80" s="3" t="n">
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20:23:02</t>
+          <t>21:09:27</t>
         </is>
       </c>
       <c r="J80" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544476713028518677', 'createTime': 1756585382, 'createTimeISO': '2025-08-30T20:23:02.000Z', 'text': 'el mejor es el que haces en casa, yo lo preparo es súper fácil.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181864459169727494', 'uniqueId': 'aragonjim3', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/9b0cd69862891780431cbf5065b7fae7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=17318354&amp;x-expires=1758902400&amp;x-signature=zHhZKkZ1tQ%2BOCEVy3S5WkREjHqA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544859645590061841', 'createTime': 1756674567, 'createTimeISO': '2025-08-31T21:09:27.000Z', 'text': 'lo compre porque me lo recomendaron para la gastritis pero casi muero de gases. terrible no lo tolero.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6956840044754387973', 'uniqueId': 'franquiz1973', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7100594850907488262~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0fee4000&amp;x-expires=1758902400&amp;x-signature=naf%2BlVFcSQFFN4UqnGZMH6bz27M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -4961,18 +4961,18 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bueno pero en el d1 ya lo consiguen a 4mil, alpina mínimo 15k</t>
+          <t>Es mejor hacerlo en casa</t>
         </is>
       </c>
       <c r="G81" s="2" t="n">
-        <v>45900.69099537037</v>
+        <v>45898.12304398148</v>
       </c>
       <c r="H81" s="3" t="n">
-        <v>45900</v>
+        <v>45898</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>16:35:02</t>
+          <t>02:57:11</t>
         </is>
       </c>
       <c r="J81" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544789071563440916', 'createTime': 1756658102, 'createTimeISO': '2025-08-31T16:35:02.000Z', 'text': 'Bueno pero en el d1 ya lo consiguen a 4mil, alpina mínimo 15k', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6878118356404372486', 'uniqueId': 'juand9914', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c897a483bddfcd4012a6f9f80bec9ad3~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=278f9ffa&amp;x-expires=1758902400&amp;x-signature=OsAktpPEcWZdB1uVmUJF7p79Yic%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543836130014692112', 'createTime': 1756436231, 'createTimeISO': '2025-08-29T02:57:11.000Z', 'text': 'Es mejor hacerlo en casa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964234448910468097', 'uniqueId': 'jamessuarez155', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323742512063971330~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80adc4e9&amp;x-expires=1758902400&amp;x-signature=WQwU7nqG96kjGOW63EJHR1C%2BWH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5017,18 +5017,18 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>No solo no saben lo que realmente es , sino que no lo saben pronunciar... 😉🤣 Lleva TILDE en la e, no en la i... 🤭🤣</t>
+          <t>yo lo tomé y me ja mejorado mucho la gastritis</t>
         </is>
       </c>
       <c r="G82" s="2" t="n">
-        <v>45900.87975694444</v>
+        <v>45895.99939814815</v>
       </c>
       <c r="H82" s="3" t="n">
-        <v>45900</v>
+        <v>45895</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>21:06:51</t>
+          <t>23:59:08</t>
         </is>
       </c>
       <c r="J82" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544859071623742215', 'createTime': 1756674411, 'createTimeISO': '2025-08-31T21:06:51.000Z', 'text': 'No solo no saben lo que realmente es , sino que no lo saben pronunciar... 😉🤣 Lleva TILDE en la e, no en la i... 🤭🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7375710149779211270', 'uniqueId': 'ludy.65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543048067239953170', 'createTime': 1756252748, 'createTimeISO': '2025-08-26T23:59:08.000Z', 'text': 'yo lo tomé y me ja mejorado mucho la gastritis', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964828869590057989', 'uniqueId': 'matijob', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/4fdd72a41e0e379dcfb46ac9933dfec2~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=db26f427&amp;x-expires=1758902400&amp;x-signature=6IlDiJG2wJlcrMA5GFIxWSWozeQ%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5073,18 +5073,18 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Como lo compro</t>
+          <t>lo necesito</t>
         </is>
       </c>
       <c r="G83" s="2" t="n">
-        <v>45897.01591435185</v>
+        <v>45898.86965277778</v>
       </c>
       <c r="H83" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>00:22:55</t>
+          <t>20:52:18</t>
         </is>
       </c>
       <c r="J83" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543425277951574804', 'createTime': 1756340575, 'createTimeISO': '2025-08-28T00:22:55.000Z', 'text': 'Como lo compro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7098290952813380614', 'uniqueId': 'laprincesadeleterno', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c663a4ed4ec29b9ffd25ddf4374c5fab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1a751d79&amp;x-expires=1758902400&amp;x-signature=wq8E%2FIWUj%2BEfYKNYY5DM5O7YHfg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544113135827059457', 'createTime': 1756500738, 'createTimeISO': '2025-08-29T20:52:18.000Z', 'text': 'lo necesito', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6802237485696336901', 'uniqueId': 'yohanitacortes05', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/bdacb2938dd228d5cf6e0b5b303cd486~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=b23e1bb8&amp;x-expires=1758902400&amp;x-signature=MWzzq8AW%2F9Xqh09lPcmpGo9niOg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5129,18 +5129,18 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>no tengo plata</t>
+          <t>siempre dicen que no tienen conservantes y tiene todo lo malo, es mejor algo natural.</t>
         </is>
       </c>
       <c r="G84" s="2" t="n">
-        <v>45896.99745370371</v>
+        <v>45900.70001157407</v>
       </c>
       <c r="H84" s="3" t="n">
-        <v>45896</v>
+        <v>45900</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>23:56:20</t>
+          <t>16:48:01</t>
         </is>
       </c>
       <c r="J84" t="n">
@@ -5159,7 +5159,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543418418327323399', 'createTime': 1756338980, 'createTimeISO': '2025-08-27T23:56:20.000Z', 'text': 'no tengo plata', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7144533401553470470', 'uniqueId': 'duckly1989', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dd0f0f4ea3558e23a12319b1db603b33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67d95198&amp;x-expires=1758902400&amp;x-signature=0%2B3kyiyjjMA1wW3OuY5tW7I4nws%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544792407084385044', 'createTime': 1756658881, 'createTimeISO': '2025-08-31T16:48:01.000Z', 'text': 'siempre dicen que no tienen conservantes y tiene todo lo malo, es mejor algo natural.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6818688059228668934', 'uniqueId': 'camilaquiroga65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7328223221891268613~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=ac957cc4&amp;x-expires=1758902400&amp;x-signature=b00lXr42LISPuODEVSgSsXuGR7M%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5185,18 +5185,18 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>y el precio</t>
+          <t>si claro</t>
         </is>
       </c>
       <c r="G85" s="2" t="n">
-        <v>45896.68082175926</v>
+        <v>45896.39510416667</v>
       </c>
       <c r="H85" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>16:20:23</t>
+          <t>09:28:57</t>
         </is>
       </c>
       <c r="J85" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543300942755758855', 'createTime': 1756311623, 'createTimeISO': '2025-08-27T16:20:23.000Z', 'text': 'y el precio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819097862963479557', 'uniqueId': 'joseph_0228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5733d2d03827d9375da1ba6caddfc7b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=873e5959&amp;x-expires=1758902400&amp;x-signature=M1l4O8SzzP5eNnOQB5Vk3WiXOKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543194916475585301', 'createTime': 1756286937, 'createTimeISO': '2025-08-27T09:28:57.000Z', 'text': 'si claro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181637438136484869', 'uniqueId': 'user6317343852375', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5241,18 +5241,18 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>y los ultra procesados?</t>
+          <t>buenas tardes que precio tiene</t>
         </is>
       </c>
       <c r="G86" s="2" t="n">
-        <v>45896.98763888889</v>
+        <v>45897.95355324074</v>
       </c>
       <c r="H86" s="3" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>23:42:12</t>
+          <t>22:53:07</t>
         </is>
       </c>
       <c r="J86" t="n">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543414715722269441', 'createTime': 1756338132, 'createTimeISO': '2025-08-27T23:42:12.000Z', 'text': 'y los ultra procesados?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7345859912403420166', 'uniqueId': 'politicamente_1', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/cee265916d42a8e2bb2d7ec1430d72fb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30991c14&amp;x-expires=1758902400&amp;x-signature=D0T%2BFUhNY6AC0QLctbLySSEFXqE%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543773211704492808', 'createTime': 1756421587, 'createTimeISO': '2025-08-28T22:53:07.000Z', 'text': 'buenas tardes que precio tiene', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6963653881096373253', 'uniqueId': 'brigittemurcia30', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68315ec32e0c533634922c43c8fdc2af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3c49c28&amp;x-expires=1758902400&amp;x-signature=OuRwBDCo4knRX6Dw6d%2Bt3i0S2yA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5297,18 +5297,18 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Que ironía hace años le quitaron todos los probioticos que ya traía el yogur porque era malo y ahora lo venden más caro porque es necesario.</t>
+          <t>Una pregunta ¿ las personas con artritis las podemos consumir?</t>
         </is>
       </c>
       <c r="G87" s="2" t="n">
-        <v>45898.12568287037</v>
+        <v>45895.72927083333</v>
       </c>
       <c r="H87" s="3" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>03:00:59</t>
+          <t>17:30:09</t>
         </is>
       </c>
       <c r="J87" t="n">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543837108093289236', 'createTime': 1756436459, 'createTimeISO': '2025-08-29T03:00:59.000Z', 'text': 'Que ironía hace años le quitaron todos los probioticos que ya traía el yogur porque era malo y ahora lo venden más caro porque es necesario.', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6964234448910468097', 'uniqueId': 'jamessuarez155', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7323742512063971330~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=80adc4e9&amp;x-expires=1758902400&amp;x-signature=WQwU7nqG96kjGOW63EJHR1C%2BWH8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542947836515943176', 'createTime': 1756229409, 'createTimeISO': '2025-08-26T17:30:09.000Z', 'text': 'Una pregunta ¿ las personas con artritis las podemos consumir?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6846062462828545029', 'uniqueId': 'amandamora33', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/feda050125a5b9732842ed53006eb189~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24a8d6f1&amp;x-expires=1758902400&amp;x-signature=8XS9qSvcS3MeSv94IG1fVdSm%2Fi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5353,18 +5353,18 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>donde se compra</t>
+          <t>y cuántos granos de azúcar?</t>
         </is>
       </c>
       <c r="G88" s="2" t="n">
-        <v>45895.86732638889</v>
+        <v>45899.82758101852</v>
       </c>
       <c r="H88" s="3" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>20:48:57</t>
+          <t>19:51:43</t>
         </is>
       </c>
       <c r="J88" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542999000036819730', 'createTime': 1756241337, 'createTimeISO': '2025-08-26T20:48:57.000Z', 'text': 'donde se compra', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7407433643357012997', 'uniqueId': 'yhoan320', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7ba3b107c93d36604448d189a080bd5f~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5093ed61&amp;x-expires=1758902400&amp;x-signature=ywOFV3aZri2C4k200PjuOeDx6g4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544468650900767495', 'createTime': 1756583503, 'createTimeISO': '2025-08-30T19:51:43.000Z', 'text': 'y cuántos granos de azúcar?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6691681434376127494', 'uniqueId': 'jumper2049', 'avatarThumbnail': 'https://p16-sign-va.tiktokcdn.com/tos-maliva-avt-0068/3f6aba8b7a2c4a96406606fdfb384f35~tplv-tiktokx-cropcenter:100:100.jpg?dr=10399&amp;refresh_token=13d7e8da&amp;x-expires=1758902400&amp;x-signature=wBHoAACXguEhyk%2BJsvjfH4GQxi8%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=no1a', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5409,18 +5409,18 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>hay de color y sabor natural ?</t>
+          <t>no ayuda en nada</t>
         </is>
       </c>
       <c r="G89" s="2" t="n">
-        <v>45895.8678125</v>
+        <v>45900.39524305556</v>
       </c>
       <c r="H89" s="3" t="n">
-        <v>45895</v>
+        <v>45900</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>20:49:39</t>
+          <t>09:29:09</t>
         </is>
       </c>
       <c r="J89" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542999069507371793', 'createTime': 1756241379, 'createTimeISO': '2025-08-26T20:49:39.000Z', 'text': 'hay de color y sabor natural ?', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6919143037265019909', 'uniqueId': 'mylittlejulic', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/ea1da93383040fd348cbd365caadfe68~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=0dc869b2&amp;x-expires=1758902400&amp;x-signature=M3lOz0ujEcS3YoZ6KNFlp%2BN9W6g%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544679324796912392', 'createTime': 1756632549, 'createTimeISO': '2025-08-31T09:29:09.000Z', 'text': 'no ayuda en nada', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7223944433845584902', 'uniqueId': 'leisnerpintogomez', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/fab631ba0482f957e5a9c7e460cdbed4~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=4fb2f542&amp;x-expires=1758902400&amp;x-signature=%2FwDGI6KpGUce%2FLJP6cx7UWDtc%2BA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5465,18 +5465,18 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>donde se lo compra ciuda</t>
+          <t>lo mejor de lo mejor yo lo preparo en casa con mis búlgaros</t>
         </is>
       </c>
       <c r="G90" s="2" t="n">
-        <v>45896.418125</v>
+        <v>45896.66462962963</v>
       </c>
       <c r="H90" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>10:02:06</t>
+          <t>15:57:04</t>
         </is>
       </c>
       <c r="J90" t="n">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543203461522293525', 'createTime': 1756288926, 'createTimeISO': '2025-08-27T10:02:06.000Z', 'text': 'donde se lo compra ciuda', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7415298704799761413', 'uniqueId': 'user3534344770497', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543294944598950663', 'createTime': 1756310224, 'createTimeISO': '2025-08-27T15:57:04.000Z', 'text': 'lo mejor de lo mejor yo lo preparo en casa con mis búlgaros', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7497067385318048786', 'uniqueId': 'lliana.rubiano', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/70f4e48bc92f164ae4d965ca4db930df~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=727a9e9b&amp;x-expires=1758902400&amp;x-signature=d13614pFQahTfR94WExDe1gmFN4%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5521,18 +5521,18 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>puedo tomarlo con colesterol alto!!</t>
+          <t>no tengo plata</t>
         </is>
       </c>
       <c r="G91" s="2" t="n">
-        <v>45895.69623842592</v>
+        <v>45896.99745370371</v>
       </c>
       <c r="H91" s="3" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>16:42:35</t>
+          <t>23:56:20</t>
         </is>
       </c>
       <c r="J91" t="n">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542935580766847761', 'createTime': 1756226555, 'createTimeISO': '2025-08-26T16:42:35.000Z', 'text': 'puedo tomarlo con colesterol alto!!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7007166316348556293', 'uniqueId': 'isabellavargas138', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7335213947483586566~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=72384525&amp;x-expires=1758902400&amp;x-signature=ztAv4cG4Lzfk6ZNdqmhkR%2FblC0o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543418418327323399', 'createTime': 1756338980, 'createTimeISO': '2025-08-27T23:56:20.000Z', 'text': 'no tengo plata', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7144533401553470470', 'uniqueId': 'duckly1989', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/dd0f0f4ea3558e23a12319b1db603b33~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=67d95198&amp;x-expires=1758902400&amp;x-signature=0%2B3kyiyjjMA1wW3OuY5tW7I4nws%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5577,18 +5577,18 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>yo lo ago en casa</t>
+          <t>No le he visto en super mercado</t>
         </is>
       </c>
       <c r="G92" s="2" t="n">
-        <v>45897.04484953704</v>
+        <v>45897.68021990741</v>
       </c>
       <c r="H92" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>01:04:35</t>
+          <t>16:19:31</t>
         </is>
       </c>
       <c r="J92" t="n">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543436026090685205', 'createTime': 1756343075, 'createTimeISO': '2025-08-28T01:04:35.000Z', 'text': 'yo lo ago en casa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6833160950863758341', 'uniqueId': 'maro5716', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326984071219773445~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=30d3c543&amp;x-expires=1758902400&amp;x-signature=7BikTubtEQF%2Ft%2FQt1qZlZOtDunI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543671816532034324', 'createTime': 1756397971, 'createTimeISO': '2025-08-28T16:19:31.000Z', 'text': 'No le he visto en super mercado', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7294010912444679173', 'uniqueId': 'nelsonfre82hotmai', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/81935f7eb2d82f3aa0ba8ff559047722~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=24f83e14&amp;x-expires=1758902400&amp;x-signature=68U1Z0Vrh%2BJZBgJQk95ZuDg4t2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5633,18 +5633,18 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>de que es la preparación</t>
+          <t>Yo lo estoy preparando en casa pero no me alcanzo a tomar todo el que preparo porque lo hago cada 12 horas para que no me quede tan ácido</t>
         </is>
       </c>
       <c r="G93" s="2" t="n">
-        <v>45895.83930555556</v>
+        <v>45900.63222222222</v>
       </c>
       <c r="H93" s="3" t="n">
-        <v>45895</v>
+        <v>45900</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>20:08:36</t>
+          <t>15:10:24</t>
         </is>
       </c>
       <c r="J93" t="n">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7542988636293202709', 'createTime': 1756238916, 'createTimeISO': '2025-08-26T20:08:36.000Z', 'text': 'de que es la preparación', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7266525404759802886', 'uniqueId': 'ruizalzategloria', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/c9bd65c2dba87ccb8ac77e4fc71cd959~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=755a47dc&amp;x-expires=1758902400&amp;x-signature=Dg0K6bU1wre0%2FlLDUY0B2HB0kzY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544767262232036103', 'createTime': 1756653024, 'createTimeISO': '2025-08-31T15:10:24.000Z', 'text': 'Yo lo estoy preparando en casa pero no me alcanzo a tomar todo el que preparo porque lo hago cada 12 horas para que no me quede tan ácido', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6607546814818779141', 'uniqueId': 'vivianadiosa', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/2e59e65d02647d5d7b491f813ef4f1d5~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=8da9c27b&amp;x-expires=1758902400&amp;x-signature=OcnB4wKKCHwVVE1b1n9XH9dIV6o%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5689,18 +5689,18 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>este señor perdió la credibilidad ahora si</t>
+          <t>eso no es natural, es mejor prepararlo en casa</t>
         </is>
       </c>
       <c r="G94" s="2" t="n">
-        <v>45897.50053240741</v>
+        <v>45896.07145833333</v>
       </c>
       <c r="H94" s="3" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>12:00:46</t>
+          <t>01:42:54</t>
         </is>
       </c>
       <c r="J94" t="n">
@@ -5719,7 +5719,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543605143636542226', 'createTime': 1756382446, 'createTimeISO': '2025-08-28T12:00:46.000Z', 'text': 'este señor perdió la credibilidad ahora si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6588256611910893574', 'uniqueId': 'juanpaablo24', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1edcb7cc3b3b4c7f176f6f3ea65814dd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e51fd92a&amp;x-expires=1758902400&amp;x-signature=Ed0gFhgFQpnF%2FbG6F7I6c4puh2w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543074807136289554', 'createTime': 1756258974, 'createTimeISO': '2025-08-27T01:42:54.000Z', 'text': 'eso no es natural, es mejor prepararlo en casa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7067365106573509637', 'uniqueId': 'mile19023', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/4a91bac8125d46455ed178ef9ec047d7~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=341f26a2&amp;x-expires=1758902400&amp;x-signature=D5XsNyfMHU8DoRi%2FDQK%2FM%2Bune3U%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5745,18 +5745,18 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>donde se consigue</t>
+          <t>Como lo compro</t>
         </is>
       </c>
       <c r="G95" s="2" t="n">
-        <v>45895.88931712963</v>
+        <v>45897.01591435185</v>
       </c>
       <c r="H95" s="3" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>21:20:37</t>
+          <t>00:22:55</t>
         </is>
       </c>
       <c r="J95" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543007180577653511', 'createTime': 1756243237, 'createTimeISO': '2025-08-26T21:20:37.000Z', 'text': 'donde se consigue', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7319299516199928838', 'uniqueId': 'maritzaardila58', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7388864724099694598~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=5eeb8365&amp;x-expires=1758902400&amp;x-signature=2seu%2BbET4%2FfuwTdQhmXNDTQzCmM%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543425277951574804', 'createTime': 1756340575, 'createTimeISO': '2025-08-28T00:22:55.000Z', 'text': 'Como lo compro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7098290952813380614', 'uniqueId': 'laprincesadeleterno', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/c663a4ed4ec29b9ffd25ddf4374c5fab~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=1a751d79&amp;x-expires=1758902400&amp;x-signature=wq8E%2FIWUj%2BEfYKNYY5DM5O7YHfg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5801,18 +5801,18 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>buenas tardes que precio tiene</t>
+          <t>El mejor Kefir es el que saca en casa</t>
         </is>
       </c>
       <c r="G96" s="2" t="n">
-        <v>45897.95355324074</v>
+        <v>45898.11206018519</v>
       </c>
       <c r="H96" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>22:53:07</t>
+          <t>02:41:22</t>
         </is>
       </c>
       <c r="J96" t="n">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543773211704492808', 'createTime': 1756421587, 'createTimeISO': '2025-08-28T22:53:07.000Z', 'text': 'buenas tardes que precio tiene', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6963653881096373253', 'uniqueId': 'brigittemurcia30', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/68315ec32e0c533634922c43c8fdc2af~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c3c49c28&amp;x-expires=1758902400&amp;x-signature=OuRwBDCo4knRX6Dw6d%2Bt3i0S2yA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543832057387205396', 'createTime': 1756435282, 'createTimeISO': '2025-08-29T02:41:22.000Z', 'text': 'El mejor Kefir es el que saca en casa', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7088512694659744774', 'uniqueId': 'yolandaforerofigu', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/f4f915aa74a5598945e660595cd72acb~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=571fc0ab&amp;x-expires=1758902400&amp;x-signature=U2ci4knYgLe9IIDpg0rDAYhx9UI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5857,18 +5857,18 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>si claro</t>
+          <t>cuánto le están pagando por esa promoción</t>
         </is>
       </c>
       <c r="G97" s="2" t="n">
-        <v>45896.39510416667</v>
+        <v>45897.66307870371</v>
       </c>
       <c r="H97" s="3" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>09:28:57</t>
+          <t>15:54:50</t>
         </is>
       </c>
       <c r="J97" t="n">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543194916475585301', 'createTime': 1756286937, 'createTimeISO': '2025-08-27T09:28:57.000Z', 'text': 'si claro', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7181637438136484869', 'uniqueId': 'user6317343852375', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543665461109048082', 'createTime': 1756396490, 'createTimeISO': '2025-08-28T15:54:50.000Z', 'text': 'cuánto le están pagando por esa promoción', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6867444794135315461', 'uniqueId': 'joseluiscalavillarreal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7325098578702139399~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c310ba5&amp;x-expires=1758902400&amp;x-signature=4suW9gOaaA6ccPkF8ZHazKZt8As%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5913,18 +5913,18 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>se puede huzar si tenemos colon iritable</t>
+          <t>este señor perdió la credibilidad ahora si</t>
         </is>
       </c>
       <c r="G98" s="2" t="n">
-        <v>45897.82565972222</v>
+        <v>45897.50053240741</v>
       </c>
       <c r="H98" s="3" t="n">
         <v>45897</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>19:48:57</t>
+          <t>12:00:46</t>
         </is>
       </c>
       <c r="J98" t="n">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543725768036434696', 'createTime': 1756410537, 'createTimeISO': '2025-08-28T19:48:57.000Z', 'text': 'se puede huzar si tenemos colon iritable', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7428185898288530437', 'uniqueId': 'nancycorderovarga', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/95e6143aca7398a844243f14c082700c~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=e7aeaf48&amp;x-expires=1758902400&amp;x-signature=RI8zDFA4K081Tl%2Bo4k3b%2FvWyFOY%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543605143636542226', 'createTime': 1756382446, 'createTimeISO': '2025-08-28T12:00:46.000Z', 'text': 'este señor perdió la credibilidad ahora si', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6588256611910893574', 'uniqueId': 'juanpaablo24', 'avatarThumbnail': 'https://p19-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/1edcb7cc3b3b4c7f176f6f3ea65814dd~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=2d2e9d0c&amp;x-expires=1758902400&amp;x-signature=C4n6Ah3dktMlXrMhfWBe5AipKtg%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -5969,18 +5969,18 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>cuánto le están pagando por esa promoción</t>
+          <t>No solo no saben lo que realmente es , sino que no lo saben pronunciar... 😉🤣 Lleva TILDE en la e, no en la i... 🤭🤣</t>
         </is>
       </c>
       <c r="G99" s="2" t="n">
-        <v>45897.66307870371</v>
+        <v>45900.87975694444</v>
       </c>
       <c r="H99" s="3" t="n">
-        <v>45897</v>
+        <v>45900</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>15:54:50</t>
+          <t>21:06:51</t>
         </is>
       </c>
       <c r="J99" t="n">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543665461109048082', 'createTime': 1756396490, 'createTimeISO': '2025-08-28T15:54:50.000Z', 'text': 'cuánto le están pagando por esa promoción', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6867444794135315461', 'uniqueId': 'joseluiscalavillarreal', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/7325098578702139399~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=7c310ba5&amp;x-expires=1758902400&amp;x-signature=4suW9gOaaA6ccPkF8ZHazKZt8As%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544859071623742215', 'createTime': 1756674411, 'createTimeISO': '2025-08-31T21:06:51.000Z', 'text': 'No solo no saben lo que realmente es , sino que no lo saben pronunciar... 😉🤣 Lleva TILDE en la e, no en la i... 🤭🤣', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7375710149779211270', 'uniqueId': 'ludy.65', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/musically-maliva-obj/1594805258216454~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=452d651c&amp;x-expires=1758902400&amp;x-signature=3vINDSRxFlPGsptwD9CLlkL4aPU%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6025,18 +6025,18 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Pura moda!</t>
+          <t>y que decir del Precio ????😳😳😳</t>
         </is>
       </c>
       <c r="G100" s="2" t="n">
-        <v>45897.92331018519</v>
+        <v>45898.81418981482</v>
       </c>
       <c r="H100" s="3" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>22:09:34</t>
+          <t>19:32:26</t>
         </is>
       </c>
       <c r="J100" t="n">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543761993263776518', 'createTime': 1756418974, 'createTimeISO': '2025-08-28T22:09:34.000Z', 'text': 'Pura moda!', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7154794421698184197', 'uniqueId': 'miriamcaicedo172', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/18794107c01446961efc83d81813ecaf~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=c9d7c930&amp;x-expires=1758902400&amp;x-signature=Wjz18N%2ByN8VkQOtEKlT11kb1BuA%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7544092610579743493', 'createTime': 1756495946, 'createTimeISO': '2025-08-29T19:32:26.000Z', 'text': 'y que decir del Precio ????😳😳😳', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7039316567075193861', 'uniqueId': 'user9209418365521', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7290744001640103942~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=84e4e385&amp;x-expires=1758902400&amp;x-signature=iaQx%2BDc3Ukh54ty03XLR03Kd59w%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6081,18 +6081,18 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>con este patrocinio confirmo por q no le creo tanto a este señor</t>
+          <t>y el precio</t>
         </is>
       </c>
       <c r="G101" s="2" t="n">
-        <v>45896.86733796296</v>
+        <v>45896.68082175926</v>
       </c>
       <c r="H101" s="3" t="n">
         <v>45896</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>20:48:58</t>
+          <t>16:20:23</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543370118115115797', 'createTime': 1756327738, 'createTimeISO': '2025-08-27T20:48:58.000Z', 'text': 'con este patrocinio confirmo por q no le creo tanto a este señor', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '7012373585503372294', 'uniqueId': 'imcbastian', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-maliva-avt-0068/7326851877143298054~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=dd66996e&amp;x-expires=1758902400&amp;x-signature=2LkWpSCsD6vwGYYAdG5WKBN0Kn0%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast8', 'mentions': [], 'detailedMentions': []}</t>
+          <t>{'videoWebUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'submittedVideoUrl': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'input': 'https://www.tiktok.com/@user360907502/video/7542610432733859080', 'cid': '7543300942755758855', 'createTime': 1756311623, 'createTimeISO': '2025-08-27T16:20:23.000Z', 'text': 'y el precio', 'diggCount': 0, 'likedByAuthor': False, 'pinnedByAuthor': False, 'repliesToId': None, 'replyCommentTotal': 0, 'uid': '6819097862963479557', 'uniqueId': 'joseph_0228', 'avatarThumbnail': 'https://p16-common-sign.tiktokcdn-us.com/tos-alisg-avt-0068/e5733d2d03827d9375da1ba6caddfc7b~tplv-tiktokx-cropcenter:100:100.jpg?dr=9640&amp;refresh_token=873e5959&amp;x-expires=1758902400&amp;x-signature=M1l4O8SzzP5eNnOQB5Vk3WiXOKI%3D&amp;t=4d5b0474&amp;ps=13740610&amp;shp=30310797&amp;shcp=ff37627b&amp;idc=useast5', 'mentions': [], 'detailedMentions': []}</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
